--- a/Dataset/15/낮과밤_학습(15)/낮과밤9.xlsx
+++ b/Dataset/15/낮과밤_학습(15)/낮과밤9.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\doohk\Desktop\GIST\4학년 1학기\AI 프로젝트\AI\Dataset\15\낮과밤_학습(15)\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{46890F5E-DC67-41B3-85D4-C86FA4DE8082}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{397786C3-F8FB-4FD4-9BC2-DCDEAD92DA88}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="4663" yWindow="4663" windowWidth="16328" windowHeight="13054" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-103" yWindow="-103" windowWidth="33120" windowHeight="18000" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -3733,7 +3733,7 @@
   <dimension ref="A1:F556"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A103" workbookViewId="0">
-      <selection activeCell="F108" sqref="F108"/>
+      <selection activeCell="J108" sqref="J108"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="17.600000000000001" x14ac:dyDescent="0.55000000000000004"/>
@@ -3775,7 +3775,6 @@
         <v>1</v>
       </c>
       <c r="E2">
-        <f t="shared" ref="E2:E65" si="0">IF(ISBLANK(F2),D2,F2)</f>
         <v>1</v>
       </c>
     </row>
@@ -3790,11 +3789,10 @@
         <v>1.4724143780767919E-2</v>
       </c>
       <c r="D3">
-        <f t="shared" ref="D3:D66" si="1">IF(C3&gt;0.5, 1, 0)</f>
+        <f t="shared" ref="D3:D66" si="0">IF(C3&gt;0.5, 1, 0)</f>
         <v>0</v>
       </c>
       <c r="E3">
-        <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
@@ -3809,11 +3807,10 @@
         <v>0.38706639409065252</v>
       </c>
       <c r="D4">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="E4">
-        <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
@@ -3828,11 +3825,10 @@
         <v>2.447456493973732E-2</v>
       </c>
       <c r="D5">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="E5">
-        <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
@@ -3847,11 +3843,10 @@
         <v>0.99055683612823486</v>
       </c>
       <c r="D6">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>1</v>
       </c>
       <c r="E6">
-        <f t="shared" si="0"/>
         <v>1</v>
       </c>
     </row>
@@ -3866,11 +3861,10 @@
         <v>0.98999500274658203</v>
       </c>
       <c r="D7">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>1</v>
       </c>
       <c r="E7">
-        <f t="shared" si="0"/>
         <v>1</v>
       </c>
     </row>
@@ -3885,11 +3879,10 @@
         <v>0.99059593677520752</v>
       </c>
       <c r="D8">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>1</v>
       </c>
       <c r="E8">
-        <f t="shared" si="0"/>
         <v>1</v>
       </c>
     </row>
@@ -3904,11 +3897,10 @@
         <v>0.99059629440307617</v>
       </c>
       <c r="D9">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>1</v>
       </c>
       <c r="E9">
-        <f t="shared" si="0"/>
         <v>1</v>
       </c>
     </row>
@@ -3923,11 +3915,10 @@
         <v>0.99060070514678955</v>
       </c>
       <c r="D10">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>1</v>
       </c>
       <c r="E10">
-        <f t="shared" si="0"/>
         <v>1</v>
       </c>
     </row>
@@ -3942,11 +3933,10 @@
         <v>0.99059361219406128</v>
       </c>
       <c r="D11">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>1</v>
       </c>
       <c r="E11">
-        <f t="shared" si="0"/>
         <v>1</v>
       </c>
     </row>
@@ -3961,11 +3951,10 @@
         <v>0.99057638645172119</v>
       </c>
       <c r="D12">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>1</v>
       </c>
       <c r="E12">
-        <f t="shared" si="0"/>
         <v>1</v>
       </c>
     </row>
@@ -3980,11 +3969,10 @@
         <v>4.3300766497850418E-2</v>
       </c>
       <c r="D13">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="E13">
-        <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
@@ -3999,11 +3987,10 @@
         <v>1.5001228079199789E-2</v>
       </c>
       <c r="D14">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="E14">
-        <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
@@ -4018,11 +4005,10 @@
         <v>1.50120398029685E-2</v>
       </c>
       <c r="D15">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="E15">
-        <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
@@ -4037,11 +4023,10 @@
         <v>1.4590419828891751E-2</v>
       </c>
       <c r="D16">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="E16">
-        <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
@@ -4056,11 +4041,10 @@
         <v>0.9903489351272583</v>
       </c>
       <c r="D17">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>1</v>
       </c>
       <c r="E17">
-        <f t="shared" si="0"/>
         <v>1</v>
       </c>
     </row>
@@ -4075,11 +4059,10 @@
         <v>1.6118777915835381E-2</v>
       </c>
       <c r="D18">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="E18">
-        <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
@@ -4094,11 +4077,10 @@
         <v>0.99057626724243164</v>
       </c>
       <c r="D19">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>1</v>
       </c>
       <c r="E19">
-        <f t="shared" si="0"/>
         <v>1</v>
       </c>
     </row>
@@ -4113,11 +4095,10 @@
         <v>0.33112680912017822</v>
       </c>
       <c r="D20">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="E20">
-        <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
@@ -4132,11 +4113,10 @@
         <v>1.6224488615989689E-2</v>
       </c>
       <c r="D21">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="E21">
-        <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
@@ -4151,11 +4131,10 @@
         <v>1.44974198192358E-2</v>
       </c>
       <c r="D22">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="E22">
-        <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
@@ -4170,11 +4149,10 @@
         <v>6.9800794124603271E-2</v>
       </c>
       <c r="D23">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="E23">
-        <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
@@ -4189,11 +4167,10 @@
         <v>4.414006695151329E-2</v>
       </c>
       <c r="D24">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="E24">
-        <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
@@ -4208,11 +4185,10 @@
         <v>0.99042385816574097</v>
       </c>
       <c r="D25">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>1</v>
       </c>
       <c r="E25">
-        <f t="shared" si="0"/>
         <v>1</v>
       </c>
     </row>
@@ -4227,11 +4203,10 @@
         <v>0.33112680912017822</v>
       </c>
       <c r="D26">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="E26">
-        <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
@@ -4246,11 +4221,10 @@
         <v>1.4617991633713251E-2</v>
       </c>
       <c r="D27">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="E27">
-        <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
@@ -4265,11 +4239,10 @@
         <v>0.99059617519378662</v>
       </c>
       <c r="D28">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>1</v>
       </c>
       <c r="E28">
-        <f t="shared" si="0"/>
         <v>1</v>
       </c>
     </row>
@@ -4284,11 +4257,10 @@
         <v>1.4890917576849461E-2</v>
       </c>
       <c r="D29">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="E29">
-        <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
@@ -4303,11 +4275,10 @@
         <v>0.99058073759078979</v>
       </c>
       <c r="D30">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>1</v>
       </c>
       <c r="E30">
-        <f t="shared" si="0"/>
         <v>1</v>
       </c>
     </row>
@@ -4322,11 +4293,10 @@
         <v>0.97217363119125366</v>
       </c>
       <c r="D31">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>1</v>
       </c>
       <c r="E31">
-        <f t="shared" si="0"/>
         <v>1</v>
       </c>
     </row>
@@ -4341,11 +4311,10 @@
         <v>1.4665700495243071E-2</v>
       </c>
       <c r="D32">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="E32">
-        <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
@@ -4360,11 +4329,10 @@
         <v>1.6722869127988819E-2</v>
       </c>
       <c r="D33">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="E33">
-        <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
@@ -4379,11 +4347,10 @@
         <v>1.8240131437778469E-2</v>
       </c>
       <c r="D34">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="E34">
-        <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
@@ -4398,11 +4365,10 @@
         <v>1.4437840320169929E-2</v>
       </c>
       <c r="D35">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="E35">
-        <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
@@ -4417,11 +4383,10 @@
         <v>1.4253673143684861E-2</v>
       </c>
       <c r="D36">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="E36">
-        <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
@@ -4436,11 +4401,10 @@
         <v>0.16167847812175751</v>
       </c>
       <c r="D37">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="E37">
-        <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
@@ -4455,11 +4419,10 @@
         <v>1.48793738335371E-2</v>
       </c>
       <c r="D38">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="E38">
-        <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
@@ -4474,11 +4437,10 @@
         <v>0.99061065912246704</v>
       </c>
       <c r="D39">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>1</v>
       </c>
       <c r="E39">
-        <f t="shared" si="0"/>
         <v>1</v>
       </c>
     </row>
@@ -4493,11 +4455,10 @@
         <v>1.4697106555104259E-2</v>
       </c>
       <c r="D40">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="E40">
-        <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
@@ -4512,11 +4473,10 @@
         <v>3.2547563314437873E-2</v>
       </c>
       <c r="D41">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="E41">
-        <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
@@ -4531,11 +4491,10 @@
         <v>1.9743494689464569E-2</v>
       </c>
       <c r="D42">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="E42">
-        <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
@@ -4550,11 +4509,10 @@
         <v>4.3158508837223053E-2</v>
       </c>
       <c r="D43">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="E43">
-        <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
@@ -4569,11 +4527,10 @@
         <v>0.32969018816947943</v>
       </c>
       <c r="D44">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="E44">
-        <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
@@ -4588,11 +4545,10 @@
         <v>1.6112411394715309E-2</v>
       </c>
       <c r="D45">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="E45">
-        <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
@@ -4607,11 +4563,10 @@
         <v>0.86088711023330688</v>
       </c>
       <c r="D46">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>1</v>
       </c>
       <c r="E46">
-        <f t="shared" si="0"/>
         <v>1</v>
       </c>
     </row>
@@ -4626,11 +4581,10 @@
         <v>1.4782164245843891E-2</v>
       </c>
       <c r="D47">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="E47">
-        <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
@@ -4645,11 +4599,10 @@
         <v>2.4502998217940331E-2</v>
       </c>
       <c r="D48">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="E48">
-        <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
@@ -4664,11 +4617,10 @@
         <v>1.4636672101914879E-2</v>
       </c>
       <c r="D49">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="E49">
-        <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
@@ -4683,11 +4635,10 @@
         <v>3.2611053436994553E-2</v>
       </c>
       <c r="D50">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="E50">
-        <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
@@ -4702,11 +4653,10 @@
         <v>1.582773216068745E-2</v>
       </c>
       <c r="D51">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="E51">
-        <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
@@ -4721,11 +4671,10 @@
         <v>6.6068902611732483E-2</v>
       </c>
       <c r="D52">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="E52">
-        <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
@@ -4740,11 +4689,10 @@
         <v>3.1594924628734589E-2</v>
       </c>
       <c r="D53">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="E53">
-        <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
@@ -4759,11 +4707,10 @@
         <v>5.0272021442651749E-2</v>
       </c>
       <c r="D54">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="E54">
-        <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
@@ -4778,11 +4725,10 @@
         <v>3.5026498138904572E-2</v>
       </c>
       <c r="D55">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="E55">
-        <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
@@ -4797,11 +4743,10 @@
         <v>0.58978796005249023</v>
       </c>
       <c r="D56">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>1</v>
       </c>
       <c r="E56">
-        <f t="shared" si="0"/>
         <v>1</v>
       </c>
     </row>
@@ -4816,11 +4761,10 @@
         <v>1.424080226570368E-2</v>
       </c>
       <c r="D57">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="E57">
-        <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
@@ -4835,11 +4779,10 @@
         <v>2.1336866542696949E-2</v>
       </c>
       <c r="D58">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="E58">
-        <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
@@ -4854,11 +4797,10 @@
         <v>2.69481111317873E-2</v>
       </c>
       <c r="D59">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="E59">
-        <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
@@ -4873,11 +4815,10 @@
         <v>1.4418204315006729E-2</v>
       </c>
       <c r="D60">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="E60">
-        <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
@@ -4892,11 +4833,10 @@
         <v>0.99019461870193481</v>
       </c>
       <c r="D61">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>1</v>
       </c>
       <c r="E61">
-        <f t="shared" si="0"/>
         <v>1</v>
       </c>
     </row>
@@ -4911,11 +4851,10 @@
         <v>0.99060249328613281</v>
       </c>
       <c r="D62">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>1</v>
       </c>
       <c r="E62">
-        <f t="shared" si="0"/>
         <v>1</v>
       </c>
     </row>
@@ -4930,11 +4869,10 @@
         <v>0.73184973001480103</v>
       </c>
       <c r="D63">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>1</v>
       </c>
       <c r="E63">
-        <f t="shared" si="0"/>
         <v>1</v>
       </c>
     </row>
@@ -4949,11 +4887,10 @@
         <v>3.3739622682332993E-2</v>
       </c>
       <c r="D64">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="E64">
-        <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
@@ -4968,11 +4905,10 @@
         <v>1.5107786282897001E-2</v>
       </c>
       <c r="D65">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="E65">
-        <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
@@ -4987,11 +4923,10 @@
         <v>1.652204617857933E-2</v>
       </c>
       <c r="D66">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="E66">
-        <f t="shared" ref="E66:E129" si="2">IF(ISBLANK(F66),D66,F66)</f>
         <v>0</v>
       </c>
     </row>
@@ -5006,11 +4941,10 @@
         <v>0.98769205808639526</v>
       </c>
       <c r="D67">
-        <f t="shared" ref="D67:D130" si="3">IF(C67&gt;0.5, 1, 0)</f>
+        <f t="shared" ref="D67:D130" si="1">IF(C67&gt;0.5, 1, 0)</f>
         <v>1</v>
       </c>
       <c r="E67">
-        <f t="shared" si="2"/>
         <v>1</v>
       </c>
     </row>
@@ -5025,11 +4959,10 @@
         <v>1.4231212437152861E-2</v>
       </c>
       <c r="D68">
-        <f t="shared" si="3"/>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="E68">
-        <f t="shared" si="2"/>
         <v>0</v>
       </c>
     </row>
@@ -5044,11 +4977,10 @@
         <v>2.9923897236585621E-2</v>
       </c>
       <c r="D69">
-        <f t="shared" si="3"/>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="E69">
-        <f t="shared" si="2"/>
         <v>0</v>
       </c>
     </row>
@@ -5063,11 +4995,10 @@
         <v>7.6411597430706024E-2</v>
       </c>
       <c r="D70">
-        <f t="shared" si="3"/>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="E70">
-        <f t="shared" si="2"/>
         <v>0</v>
       </c>
     </row>
@@ -5082,11 +5013,10 @@
         <v>1.4161325059831141E-2</v>
       </c>
       <c r="D71">
-        <f t="shared" si="3"/>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="E71">
-        <f t="shared" si="2"/>
         <v>0</v>
       </c>
     </row>
@@ -5101,11 +5031,10 @@
         <v>8.2908019423484802E-2</v>
       </c>
       <c r="D72">
-        <f t="shared" si="3"/>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="E72">
-        <f t="shared" si="2"/>
         <v>0</v>
       </c>
     </row>
@@ -5120,11 +5049,10 @@
         <v>1.6372134909033779E-2</v>
       </c>
       <c r="D73">
-        <f t="shared" si="3"/>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="E73">
-        <f t="shared" si="2"/>
         <v>0</v>
       </c>
     </row>
@@ -5139,11 +5067,10 @@
         <v>1.4425341971218589E-2</v>
       </c>
       <c r="D74">
-        <f t="shared" si="3"/>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="E74">
-        <f t="shared" si="2"/>
         <v>0</v>
       </c>
     </row>
@@ -5158,11 +5085,10 @@
         <v>1.9160810858011249E-2</v>
       </c>
       <c r="D75">
-        <f t="shared" si="3"/>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="E75">
-        <f t="shared" si="2"/>
         <v>0</v>
       </c>
     </row>
@@ -5177,11 +5103,10 @@
         <v>1.486823707818985E-2</v>
       </c>
       <c r="D76">
-        <f t="shared" si="3"/>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="E76">
-        <f t="shared" si="2"/>
         <v>0</v>
       </c>
     </row>
@@ -5196,11 +5121,10 @@
         <v>1.6817595809698101E-2</v>
       </c>
       <c r="D77">
-        <f t="shared" si="3"/>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="E77">
-        <f t="shared" si="2"/>
         <v>0</v>
       </c>
     </row>
@@ -5215,11 +5139,10 @@
         <v>1.4422230422496801E-2</v>
       </c>
       <c r="D78">
-        <f t="shared" si="3"/>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="E78">
-        <f t="shared" si="2"/>
         <v>0</v>
       </c>
     </row>
@@ -5234,11 +5157,10 @@
         <v>1.49933872744441E-2</v>
       </c>
       <c r="D79">
-        <f t="shared" si="3"/>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="E79">
-        <f t="shared" si="2"/>
         <v>0</v>
       </c>
     </row>
@@ -5253,11 +5175,10 @@
         <v>1.4829489402472969E-2</v>
       </c>
       <c r="D80">
-        <f t="shared" si="3"/>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="E80">
-        <f t="shared" si="2"/>
         <v>0</v>
       </c>
     </row>
@@ -5272,11 +5193,10 @@
         <v>1.450602617114782E-2</v>
       </c>
       <c r="D81">
-        <f t="shared" si="3"/>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="E81">
-        <f t="shared" si="2"/>
         <v>0</v>
       </c>
     </row>
@@ -5291,11 +5211,10 @@
         <v>1.752302423119545E-2</v>
       </c>
       <c r="D82">
-        <f t="shared" si="3"/>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="E82">
-        <f t="shared" si="2"/>
         <v>0</v>
       </c>
     </row>
@@ -5310,11 +5229,10 @@
         <v>0.99058693647384644</v>
       </c>
       <c r="D83">
-        <f t="shared" si="3"/>
+        <f t="shared" si="1"/>
         <v>1</v>
       </c>
       <c r="E83">
-        <f t="shared" si="2"/>
         <v>1</v>
       </c>
     </row>
@@ -5329,11 +5247,10 @@
         <v>1.5865957364439961E-2</v>
       </c>
       <c r="D84">
-        <f t="shared" si="3"/>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="E84">
-        <f t="shared" si="2"/>
         <v>0</v>
       </c>
     </row>
@@ -5348,11 +5265,10 @@
         <v>1.426540222018957E-2</v>
       </c>
       <c r="D85">
-        <f t="shared" si="3"/>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="E85">
-        <f t="shared" si="2"/>
         <v>0</v>
       </c>
     </row>
@@ -5367,11 +5283,10 @@
         <v>1.9554454833269119E-2</v>
       </c>
       <c r="D86">
-        <f t="shared" si="3"/>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="E86">
-        <f t="shared" si="2"/>
         <v>0</v>
       </c>
     </row>
@@ -5386,11 +5301,10 @@
         <v>3.470824658870697E-2</v>
       </c>
       <c r="D87">
-        <f t="shared" si="3"/>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="E87">
-        <f t="shared" si="2"/>
         <v>0</v>
       </c>
     </row>
@@ -5405,11 +5319,10 @@
         <v>2.7557967230677601E-2</v>
       </c>
       <c r="D88">
-        <f t="shared" si="3"/>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="E88">
-        <f t="shared" si="2"/>
         <v>0</v>
       </c>
     </row>
@@ -5424,11 +5337,10 @@
         <v>6.9365635514259338E-2</v>
       </c>
       <c r="D89">
-        <f t="shared" si="3"/>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="E89">
-        <f t="shared" si="2"/>
         <v>0</v>
       </c>
     </row>
@@ -5443,11 +5355,10 @@
         <v>3.1207604333758351E-2</v>
       </c>
       <c r="D90">
-        <f t="shared" si="3"/>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="E90">
-        <f t="shared" si="2"/>
         <v>0</v>
       </c>
     </row>
@@ -5462,11 +5373,10 @@
         <v>0.58789277076721191</v>
       </c>
       <c r="D91">
-        <f t="shared" si="3"/>
+        <f t="shared" si="1"/>
         <v>1</v>
       </c>
       <c r="E91">
-        <f t="shared" si="2"/>
         <v>1</v>
       </c>
     </row>
@@ -5481,11 +5391,10 @@
         <v>1.4305151998996729E-2</v>
       </c>
       <c r="D92">
-        <f t="shared" si="3"/>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="E92">
-        <f t="shared" si="2"/>
         <v>0</v>
       </c>
     </row>
@@ -5500,11 +5409,10 @@
         <v>1.443380489945412E-2</v>
       </c>
       <c r="D93">
-        <f t="shared" si="3"/>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="E93">
-        <f t="shared" si="2"/>
         <v>0</v>
       </c>
     </row>
@@ -5519,11 +5427,10 @@
         <v>1.723192073404789E-2</v>
       </c>
       <c r="D94">
-        <f t="shared" si="3"/>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="E94">
-        <f t="shared" si="2"/>
         <v>0</v>
       </c>
     </row>
@@ -5538,11 +5445,10 @@
         <v>1.4399378560483461E-2</v>
       </c>
       <c r="D95">
-        <f t="shared" si="3"/>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="E95">
-        <f t="shared" si="2"/>
         <v>0</v>
       </c>
     </row>
@@ -5557,11 +5463,10 @@
         <v>0.31001573801040649</v>
       </c>
       <c r="D96">
-        <f t="shared" si="3"/>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="E96">
-        <f t="shared" si="2"/>
         <v>0</v>
       </c>
     </row>
@@ -5576,11 +5481,10 @@
         <v>1.416435372084379E-2</v>
       </c>
       <c r="D97">
-        <f t="shared" si="3"/>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="E97">
-        <f t="shared" si="2"/>
         <v>0</v>
       </c>
     </row>
@@ -5595,11 +5499,10 @@
         <v>1.9201071932911869E-2</v>
       </c>
       <c r="D98">
-        <f t="shared" si="3"/>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="E98">
-        <f t="shared" si="2"/>
         <v>0</v>
       </c>
     </row>
@@ -5614,11 +5517,10 @@
         <v>3.1758960336446762E-2</v>
       </c>
       <c r="D99">
-        <f t="shared" si="3"/>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="E99">
-        <f t="shared" si="2"/>
         <v>0</v>
       </c>
     </row>
@@ -5633,11 +5535,10 @@
         <v>1.457846816629171E-2</v>
       </c>
       <c r="D100">
-        <f t="shared" si="3"/>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="E100">
-        <f t="shared" si="2"/>
         <v>0</v>
       </c>
     </row>
@@ -5652,11 +5553,10 @@
         <v>1.417124085128307E-2</v>
       </c>
       <c r="D101">
-        <f t="shared" si="3"/>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="E101">
-        <f t="shared" si="2"/>
         <v>0</v>
       </c>
     </row>
@@ -5671,11 +5571,10 @@
         <v>1.426410116255283E-2</v>
       </c>
       <c r="D102">
-        <f t="shared" si="3"/>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="E102">
-        <f t="shared" si="2"/>
         <v>0</v>
       </c>
     </row>
@@ -5690,11 +5589,10 @@
         <v>3.9936281740665443E-2</v>
       </c>
       <c r="D103">
-        <f t="shared" si="3"/>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="E103">
-        <f t="shared" si="2"/>
         <v>0</v>
       </c>
     </row>
@@ -5709,11 +5607,10 @@
         <v>1.434714812785387E-2</v>
       </c>
       <c r="D104">
-        <f t="shared" si="3"/>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="E104">
-        <f t="shared" si="2"/>
         <v>0</v>
       </c>
     </row>
@@ -5728,11 +5625,10 @@
         <v>1.4774159528315071E-2</v>
       </c>
       <c r="D105">
-        <f t="shared" si="3"/>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="E105">
-        <f t="shared" si="2"/>
         <v>0</v>
       </c>
     </row>
@@ -5747,11 +5643,10 @@
         <v>3.3664006739854813E-2</v>
       </c>
       <c r="D106">
-        <f t="shared" si="3"/>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="E106">
-        <f t="shared" si="2"/>
         <v>0</v>
       </c>
     </row>
@@ -5766,11 +5661,10 @@
         <v>1.4453720301389691E-2</v>
       </c>
       <c r="D107">
-        <f t="shared" si="3"/>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="E107">
-        <f t="shared" si="2"/>
         <v>0</v>
       </c>
     </row>
@@ -5785,11 +5679,10 @@
         <v>1.941806823015213E-2</v>
       </c>
       <c r="D108">
-        <f t="shared" si="3"/>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="E108">
-        <f t="shared" si="2"/>
         <v>0</v>
       </c>
     </row>
@@ -5804,11 +5697,10 @@
         <v>1.4346582815051081E-2</v>
       </c>
       <c r="D109">
-        <f t="shared" si="3"/>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="E109">
-        <f t="shared" si="2"/>
         <v>0</v>
       </c>
     </row>
@@ -5823,11 +5715,10 @@
         <v>1.4225641265511509E-2</v>
       </c>
       <c r="D110">
-        <f t="shared" si="3"/>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="E110">
-        <f t="shared" si="2"/>
         <v>0</v>
       </c>
     </row>
@@ -5842,11 +5733,10 @@
         <v>1.4168196357786661E-2</v>
       </c>
       <c r="D111">
-        <f t="shared" si="3"/>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="E111">
-        <f t="shared" si="2"/>
         <v>0</v>
       </c>
     </row>
@@ -5861,11 +5751,10 @@
         <v>2.214112505316734E-2</v>
       </c>
       <c r="D112">
-        <f t="shared" si="3"/>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="E112">
-        <f t="shared" si="2"/>
         <v>0</v>
       </c>
     </row>
@@ -5880,11 +5769,10 @@
         <v>1.503472588956356E-2</v>
       </c>
       <c r="D113">
-        <f t="shared" si="3"/>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="E113">
-        <f t="shared" si="2"/>
         <v>0</v>
       </c>
     </row>
@@ -5899,11 +5787,10 @@
         <v>1.474176719784737E-2</v>
       </c>
       <c r="D114">
-        <f t="shared" si="3"/>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="E114">
-        <f t="shared" si="2"/>
         <v>0</v>
       </c>
     </row>
@@ -5918,11 +5805,10 @@
         <v>3.7602778524160392E-2</v>
       </c>
       <c r="D115">
-        <f t="shared" si="3"/>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="E115">
-        <f t="shared" si="2"/>
         <v>0</v>
       </c>
     </row>
@@ -5937,11 +5823,10 @@
         <v>1.472723111510277E-2</v>
       </c>
       <c r="D116">
-        <f t="shared" si="3"/>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="E116">
-        <f t="shared" si="2"/>
         <v>0</v>
       </c>
     </row>
@@ -5956,11 +5841,10 @@
         <v>1.4924431219697E-2</v>
       </c>
       <c r="D117">
-        <f t="shared" si="3"/>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="E117">
-        <f t="shared" si="2"/>
         <v>0</v>
       </c>
     </row>
@@ -5975,11 +5859,10 @@
         <v>1.514354534447193E-2</v>
       </c>
       <c r="D118">
-        <f t="shared" si="3"/>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="E118">
-        <f t="shared" si="2"/>
         <v>0</v>
       </c>
     </row>
@@ -5994,11 +5877,10 @@
         <v>2.918292582035065E-2</v>
       </c>
       <c r="D119">
-        <f t="shared" si="3"/>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="E119">
-        <f t="shared" si="2"/>
         <v>0</v>
       </c>
     </row>
@@ -6013,11 +5895,10 @@
         <v>1.449117995798588E-2</v>
       </c>
       <c r="D120">
-        <f t="shared" si="3"/>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="E120">
-        <f t="shared" si="2"/>
         <v>0</v>
       </c>
     </row>
@@ -6032,11 +5913,10 @@
         <v>0.99051779508590698</v>
       </c>
       <c r="D121">
-        <f t="shared" si="3"/>
+        <f t="shared" si="1"/>
         <v>1</v>
       </c>
       <c r="E121">
-        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="F121">
@@ -6054,11 +5934,10 @@
         <v>2.1609913557767872E-2</v>
       </c>
       <c r="D122">
-        <f t="shared" si="3"/>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="E122">
-        <f t="shared" si="2"/>
         <v>0</v>
       </c>
     </row>
@@ -6073,11 +5952,10 @@
         <v>1.417938247323036E-2</v>
       </c>
       <c r="D123">
-        <f t="shared" si="3"/>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="E123">
-        <f t="shared" si="2"/>
         <v>0</v>
       </c>
     </row>
@@ -6092,11 +5970,10 @@
         <v>1.417221315205097E-2</v>
       </c>
       <c r="D124">
-        <f t="shared" si="3"/>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="E124">
-        <f t="shared" si="2"/>
         <v>0</v>
       </c>
     </row>
@@ -6111,11 +5988,10 @@
         <v>2.6055306196212769E-2</v>
       </c>
       <c r="D125">
-        <f t="shared" si="3"/>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="E125">
-        <f t="shared" si="2"/>
         <v>0</v>
       </c>
     </row>
@@ -6130,11 +6006,10 @@
         <v>1.462458726018667E-2</v>
       </c>
       <c r="D126">
-        <f t="shared" si="3"/>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="E126">
-        <f t="shared" si="2"/>
         <v>0</v>
       </c>
     </row>
@@ -6149,11 +6024,10 @@
         <v>1.663946732878685E-2</v>
       </c>
       <c r="D127">
-        <f t="shared" si="3"/>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="E127">
-        <f t="shared" si="2"/>
         <v>0</v>
       </c>
     </row>
@@ -6168,11 +6042,10 @@
         <v>1.450946927070618E-2</v>
       </c>
       <c r="D128">
-        <f t="shared" si="3"/>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="E128">
-        <f t="shared" si="2"/>
         <v>0</v>
       </c>
     </row>
@@ -6187,11 +6060,10 @@
         <v>0.33099612593650818</v>
       </c>
       <c r="D129">
-        <f t="shared" si="3"/>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="E129">
-        <f t="shared" si="2"/>
         <v>0</v>
       </c>
     </row>
@@ -6206,11 +6078,10 @@
         <v>0.31768837571144098</v>
       </c>
       <c r="D130">
-        <f t="shared" si="3"/>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="E130">
-        <f t="shared" ref="E130:E193" si="4">IF(ISBLANK(F130),D130,F130)</f>
         <v>0</v>
       </c>
     </row>
@@ -6225,11 +6096,10 @@
         <v>1.426417008042336E-2</v>
       </c>
       <c r="D131">
-        <f t="shared" ref="D131:D194" si="5">IF(C131&gt;0.5, 1, 0)</f>
+        <f t="shared" ref="D131:D194" si="2">IF(C131&gt;0.5, 1, 0)</f>
         <v>0</v>
       </c>
       <c r="E131">
-        <f t="shared" si="4"/>
         <v>0</v>
       </c>
     </row>
@@ -6244,11 +6114,10 @@
         <v>0.53900432586669922</v>
       </c>
       <c r="D132">
-        <f t="shared" si="5"/>
+        <f t="shared" si="2"/>
         <v>1</v>
       </c>
       <c r="E132">
-        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="F132">
@@ -6266,11 +6135,10 @@
         <v>1.4176151715219021E-2</v>
       </c>
       <c r="D133">
-        <f t="shared" si="5"/>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="E133">
-        <f t="shared" si="4"/>
         <v>0</v>
       </c>
     </row>
@@ -6285,11 +6153,10 @@
         <v>1.547081395983696E-2</v>
       </c>
       <c r="D134">
-        <f t="shared" si="5"/>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="E134">
-        <f t="shared" si="4"/>
         <v>0</v>
       </c>
     </row>
@@ -6304,11 +6171,10 @@
         <v>0.78197377920150757</v>
       </c>
       <c r="D135">
-        <f t="shared" si="5"/>
+        <f t="shared" si="2"/>
         <v>1</v>
       </c>
       <c r="E135">
-        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="F135">
@@ -6326,11 +6192,10 @@
         <v>1.488829590380192E-2</v>
       </c>
       <c r="D136">
-        <f t="shared" si="5"/>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="E136">
-        <f t="shared" si="4"/>
         <v>0</v>
       </c>
     </row>
@@ -6345,11 +6210,10 @@
         <v>1.424288377165794E-2</v>
       </c>
       <c r="D137">
-        <f t="shared" si="5"/>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="E137">
-        <f t="shared" si="4"/>
         <v>0</v>
       </c>
     </row>
@@ -6364,11 +6228,10 @@
         <v>1.437321305274963E-2</v>
       </c>
       <c r="D138">
-        <f t="shared" si="5"/>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="E138">
-        <f t="shared" si="4"/>
         <v>0</v>
       </c>
     </row>
@@ -6383,11 +6246,10 @@
         <v>1.452240254729986E-2</v>
       </c>
       <c r="D139">
-        <f t="shared" si="5"/>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="E139">
-        <f t="shared" si="4"/>
         <v>0</v>
       </c>
     </row>
@@ -6402,11 +6264,10 @@
         <v>1.4300082810223101E-2</v>
       </c>
       <c r="D140">
-        <f t="shared" si="5"/>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="E140">
-        <f t="shared" si="4"/>
         <v>0</v>
       </c>
     </row>
@@ -6421,11 +6282,10 @@
         <v>1.6331139951944351E-2</v>
       </c>
       <c r="D141">
-        <f t="shared" si="5"/>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="E141">
-        <f t="shared" si="4"/>
         <v>0</v>
       </c>
     </row>
@@ -6440,11 +6300,10 @@
         <v>1.452279835939407E-2</v>
       </c>
       <c r="D142">
-        <f t="shared" si="5"/>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="E142">
-        <f t="shared" si="4"/>
         <v>0</v>
       </c>
     </row>
@@ -6459,11 +6318,10 @@
         <v>1.4921635389327999E-2</v>
       </c>
       <c r="D143">
-        <f t="shared" si="5"/>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="E143">
-        <f t="shared" si="4"/>
         <v>0</v>
       </c>
     </row>
@@ -6478,11 +6336,10 @@
         <v>1.6625413671135899E-2</v>
       </c>
       <c r="D144">
-        <f t="shared" si="5"/>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="E144">
-        <f t="shared" si="4"/>
         <v>0</v>
       </c>
     </row>
@@ -6497,11 +6354,10 @@
         <v>0.33108904957771301</v>
       </c>
       <c r="D145">
-        <f t="shared" si="5"/>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="E145">
-        <f t="shared" si="4"/>
         <v>0</v>
       </c>
     </row>
@@ -6516,11 +6372,10 @@
         <v>6.0169864445924759E-2</v>
       </c>
       <c r="D146">
-        <f t="shared" si="5"/>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="E146">
-        <f t="shared" si="4"/>
         <v>0</v>
       </c>
     </row>
@@ -6535,11 +6390,10 @@
         <v>1.462339796125889E-2</v>
       </c>
       <c r="D147">
-        <f t="shared" si="5"/>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="E147">
-        <f t="shared" si="4"/>
         <v>0</v>
       </c>
     </row>
@@ -6554,11 +6408,10 @@
         <v>2.4274703115224842E-2</v>
       </c>
       <c r="D148">
-        <f t="shared" si="5"/>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="E148">
-        <f t="shared" si="4"/>
         <v>0</v>
       </c>
     </row>
@@ -6573,11 +6426,10 @@
         <v>1.418102998286486E-2</v>
       </c>
       <c r="D149">
-        <f t="shared" si="5"/>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="E149">
-        <f t="shared" si="4"/>
         <v>0</v>
       </c>
     </row>
@@ -6592,11 +6444,10 @@
         <v>4.4623609632253647E-2</v>
       </c>
       <c r="D150">
-        <f t="shared" si="5"/>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="E150">
-        <f t="shared" si="4"/>
         <v>0</v>
       </c>
     </row>
@@ -6611,11 +6462,10 @@
         <v>1.467617880553007E-2</v>
       </c>
       <c r="D151">
-        <f t="shared" si="5"/>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="E151">
-        <f t="shared" si="4"/>
         <v>0</v>
       </c>
     </row>
@@ -6630,11 +6480,10 @@
         <v>2.2204196080565449E-2</v>
       </c>
       <c r="D152">
-        <f t="shared" si="5"/>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="E152">
-        <f t="shared" si="4"/>
         <v>0</v>
       </c>
     </row>
@@ -6649,11 +6498,10 @@
         <v>1.421601697802544E-2</v>
       </c>
       <c r="D153">
-        <f t="shared" si="5"/>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="E153">
-        <f t="shared" si="4"/>
         <v>0</v>
       </c>
     </row>
@@ -6668,11 +6516,10 @@
         <v>1.468065474182367E-2</v>
       </c>
       <c r="D154">
-        <f t="shared" si="5"/>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="E154">
-        <f t="shared" si="4"/>
         <v>0</v>
       </c>
     </row>
@@ -6687,11 +6534,10 @@
         <v>1.5782183036208149E-2</v>
       </c>
       <c r="D155">
-        <f t="shared" si="5"/>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="E155">
-        <f t="shared" si="4"/>
         <v>0</v>
       </c>
     </row>
@@ -6706,11 +6552,10 @@
         <v>1.432676427066326E-2</v>
       </c>
       <c r="D156">
-        <f t="shared" si="5"/>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="E156">
-        <f t="shared" si="4"/>
         <v>0</v>
       </c>
     </row>
@@ -6725,11 +6570,10 @@
         <v>1.4167630113661289E-2</v>
       </c>
       <c r="D157">
-        <f t="shared" si="5"/>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="E157">
-        <f t="shared" si="4"/>
         <v>0</v>
       </c>
     </row>
@@ -6744,11 +6588,10 @@
         <v>2.0267592743039131E-2</v>
       </c>
       <c r="D158">
-        <f t="shared" si="5"/>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="E158">
-        <f t="shared" si="4"/>
         <v>0</v>
       </c>
     </row>
@@ -6763,11 +6606,10 @@
         <v>1.449549105018377E-2</v>
       </c>
       <c r="D159">
-        <f t="shared" si="5"/>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="E159">
-        <f t="shared" si="4"/>
         <v>0</v>
       </c>
     </row>
@@ -6782,11 +6624,10 @@
         <v>1.4493632130324841E-2</v>
       </c>
       <c r="D160">
-        <f t="shared" si="5"/>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="E160">
-        <f t="shared" si="4"/>
         <v>0</v>
       </c>
     </row>
@@ -6801,11 +6642,10 @@
         <v>7.7916309237480164E-2</v>
       </c>
       <c r="D161">
-        <f t="shared" si="5"/>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="E161">
-        <f t="shared" si="4"/>
         <v>0</v>
       </c>
     </row>
@@ -6820,11 +6660,10 @@
         <v>1.424717623740435E-2</v>
       </c>
       <c r="D162">
-        <f t="shared" si="5"/>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="E162">
-        <f t="shared" si="4"/>
         <v>0</v>
       </c>
     </row>
@@ -6839,11 +6678,10 @@
         <v>1.439458876848221E-2</v>
       </c>
       <c r="D163">
-        <f t="shared" si="5"/>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="E163">
-        <f t="shared" si="4"/>
         <v>0</v>
       </c>
     </row>
@@ -6858,11 +6696,10 @@
         <v>1.5640925616025921E-2</v>
       </c>
       <c r="D164">
-        <f t="shared" si="5"/>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="E164">
-        <f t="shared" si="4"/>
         <v>0</v>
       </c>
     </row>
@@ -6877,11 +6714,10 @@
         <v>0.28034180402755737</v>
       </c>
       <c r="D165">
-        <f t="shared" si="5"/>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="E165">
-        <f t="shared" si="4"/>
         <v>0</v>
       </c>
     </row>
@@ -6896,11 +6732,10 @@
         <v>1.5011291950941089E-2</v>
       </c>
       <c r="D166">
-        <f t="shared" si="5"/>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="E166">
-        <f t="shared" si="4"/>
         <v>0</v>
       </c>
     </row>
@@ -6915,11 +6750,10 @@
         <v>1.4169334433972841E-2</v>
       </c>
       <c r="D167">
-        <f t="shared" si="5"/>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="E167">
-        <f t="shared" si="4"/>
         <v>0</v>
       </c>
     </row>
@@ -6934,11 +6768,10 @@
         <v>1.464999187737703E-2</v>
       </c>
       <c r="D168">
-        <f t="shared" si="5"/>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="E168">
-        <f t="shared" si="4"/>
         <v>0</v>
       </c>
     </row>
@@ -6953,11 +6786,10 @@
         <v>0.92725569009780884</v>
       </c>
       <c r="D169">
-        <f t="shared" si="5"/>
+        <f t="shared" si="2"/>
         <v>1</v>
       </c>
       <c r="E169">
-        <f t="shared" si="4"/>
         <v>1</v>
       </c>
     </row>
@@ -6972,11 +6804,10 @@
         <v>1.4933626167476181E-2</v>
       </c>
       <c r="D170">
-        <f t="shared" si="5"/>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="E170">
-        <f t="shared" si="4"/>
         <v>0</v>
       </c>
     </row>
@@ -6991,11 +6822,10 @@
         <v>1.5859868377447128E-2</v>
       </c>
       <c r="D171">
-        <f t="shared" si="5"/>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="E171">
-        <f t="shared" si="4"/>
         <v>0</v>
       </c>
     </row>
@@ -7010,11 +6840,10 @@
         <v>1.476592943072319E-2</v>
       </c>
       <c r="D172">
-        <f t="shared" si="5"/>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="E172">
-        <f t="shared" si="4"/>
         <v>0</v>
       </c>
     </row>
@@ -7029,11 +6858,10 @@
         <v>1.5302904881536961E-2</v>
       </c>
       <c r="D173">
-        <f t="shared" si="5"/>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="E173">
-        <f t="shared" si="4"/>
         <v>0</v>
       </c>
     </row>
@@ -7048,11 +6876,10 @@
         <v>0.92858052253723145</v>
       </c>
       <c r="D174">
-        <f t="shared" si="5"/>
+        <f t="shared" si="2"/>
         <v>1</v>
       </c>
       <c r="E174">
-        <f t="shared" si="4"/>
         <v>1</v>
       </c>
     </row>
@@ -7067,11 +6894,10 @@
         <v>1.415175478905439E-2</v>
       </c>
       <c r="D175">
-        <f t="shared" si="5"/>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="E175">
-        <f t="shared" si="4"/>
         <v>0</v>
       </c>
     </row>
@@ -7086,11 +6912,10 @@
         <v>1.4252821914851671E-2</v>
       </c>
       <c r="D176">
-        <f t="shared" si="5"/>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="E176">
-        <f t="shared" si="4"/>
         <v>0</v>
       </c>
     </row>
@@ -7105,11 +6930,10 @@
         <v>3.7995986640453339E-2</v>
       </c>
       <c r="D177">
-        <f t="shared" si="5"/>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="E177">
-        <f t="shared" si="4"/>
         <v>0</v>
       </c>
     </row>
@@ -7124,11 +6948,10 @@
         <v>0.33110761642456049</v>
       </c>
       <c r="D178">
-        <f t="shared" si="5"/>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="E178">
-        <f t="shared" si="4"/>
         <v>0</v>
       </c>
     </row>
@@ -7143,11 +6966,10 @@
         <v>1.508419308811426E-2</v>
       </c>
       <c r="D179">
-        <f t="shared" si="5"/>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="E179">
-        <f t="shared" si="4"/>
         <v>0</v>
       </c>
     </row>
@@ -7162,11 +6984,10 @@
         <v>2.062464319169521E-2</v>
       </c>
       <c r="D180">
-        <f t="shared" si="5"/>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="E180">
-        <f t="shared" si="4"/>
         <v>0</v>
       </c>
     </row>
@@ -7181,11 +7002,10 @@
         <v>1.428505592048168E-2</v>
       </c>
       <c r="D181">
-        <f t="shared" si="5"/>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="E181">
-        <f t="shared" si="4"/>
         <v>0</v>
       </c>
     </row>
@@ -7200,11 +7020,10 @@
         <v>1.8827237188816071E-2</v>
       </c>
       <c r="D182">
-        <f t="shared" si="5"/>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="E182">
-        <f t="shared" si="4"/>
         <v>0</v>
       </c>
     </row>
@@ -7219,11 +7038,10 @@
         <v>0.86968070268630981</v>
       </c>
       <c r="D183">
-        <f t="shared" si="5"/>
+        <f t="shared" si="2"/>
         <v>1</v>
       </c>
       <c r="E183">
-        <f t="shared" si="4"/>
         <v>1</v>
       </c>
     </row>
@@ -7238,11 +7056,10 @@
         <v>2.1576551720499989E-2</v>
       </c>
       <c r="D184">
-        <f t="shared" si="5"/>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="E184">
-        <f t="shared" si="4"/>
         <v>0</v>
       </c>
     </row>
@@ -7257,11 +7074,10 @@
         <v>1.6196684911847111E-2</v>
       </c>
       <c r="D185">
-        <f t="shared" si="5"/>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="E185">
-        <f t="shared" si="4"/>
         <v>0</v>
       </c>
     </row>
@@ -7276,11 +7092,10 @@
         <v>1.422616932541132E-2</v>
       </c>
       <c r="D186">
-        <f t="shared" si="5"/>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="E186">
-        <f t="shared" si="4"/>
         <v>0</v>
       </c>
     </row>
@@ -7295,11 +7110,10 @@
         <v>1.4207678847014901E-2</v>
       </c>
       <c r="D187">
-        <f t="shared" si="5"/>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="E187">
-        <f t="shared" si="4"/>
         <v>0</v>
       </c>
     </row>
@@ -7314,11 +7128,10 @@
         <v>2.663843892514706E-2</v>
       </c>
       <c r="D188">
-        <f t="shared" si="5"/>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="E188">
-        <f t="shared" si="4"/>
         <v>0</v>
       </c>
     </row>
@@ -7333,11 +7146,10 @@
         <v>0.97250080108642578</v>
       </c>
       <c r="D189">
-        <f t="shared" si="5"/>
+        <f t="shared" si="2"/>
         <v>1</v>
       </c>
       <c r="E189">
-        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="F189">
@@ -7355,11 +7167,10 @@
         <v>1.6169697046279911E-2</v>
       </c>
       <c r="D190">
-        <f t="shared" si="5"/>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="E190">
-        <f t="shared" si="4"/>
         <v>0</v>
       </c>
     </row>
@@ -7374,11 +7185,10 @@
         <v>1.9594857469201091E-2</v>
       </c>
       <c r="D191">
-        <f t="shared" si="5"/>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="E191">
-        <f t="shared" si="4"/>
         <v>0</v>
       </c>
     </row>
@@ -7393,11 +7203,10 @@
         <v>3.073015250265598E-2</v>
       </c>
       <c r="D192">
-        <f t="shared" si="5"/>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="E192">
-        <f t="shared" si="4"/>
         <v>0</v>
       </c>
     </row>
@@ -7412,11 +7221,10 @@
         <v>1.478649862110615E-2</v>
       </c>
       <c r="D193">
-        <f t="shared" si="5"/>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="E193">
-        <f t="shared" si="4"/>
         <v>0</v>
       </c>
     </row>
@@ -7431,11 +7239,10 @@
         <v>1.427467260509729E-2</v>
       </c>
       <c r="D194">
-        <f t="shared" si="5"/>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="E194">
-        <f t="shared" ref="E194:E257" si="6">IF(ISBLANK(F194),D194,F194)</f>
         <v>0</v>
       </c>
     </row>
@@ -7450,11 +7257,10 @@
         <v>1.7304440960288051E-2</v>
       </c>
       <c r="D195">
-        <f t="shared" ref="D195:D258" si="7">IF(C195&gt;0.5, 1, 0)</f>
+        <f t="shared" ref="D195:D258" si="3">IF(C195&gt;0.5, 1, 0)</f>
         <v>0</v>
       </c>
       <c r="E195">
-        <f t="shared" si="6"/>
         <v>0</v>
       </c>
     </row>
@@ -7469,11 +7275,10 @@
         <v>1.4409642666578289E-2</v>
       </c>
       <c r="D196">
-        <f t="shared" si="7"/>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="E196">
-        <f t="shared" si="6"/>
         <v>0</v>
       </c>
     </row>
@@ -7488,11 +7293,10 @@
         <v>1.6660368070006371E-2</v>
       </c>
       <c r="D197">
-        <f t="shared" si="7"/>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="E197">
-        <f t="shared" si="6"/>
         <v>0</v>
       </c>
     </row>
@@ -7507,11 +7311,10 @@
         <v>1.4284525066614149E-2</v>
       </c>
       <c r="D198">
-        <f t="shared" si="7"/>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="E198">
-        <f t="shared" si="6"/>
         <v>0</v>
       </c>
     </row>
@@ -7526,11 +7329,10 @@
         <v>2.4031210690736771E-2</v>
       </c>
       <c r="D199">
-        <f t="shared" si="7"/>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="E199">
-        <f t="shared" si="6"/>
         <v>0</v>
       </c>
     </row>
@@ -7545,11 +7347,10 @@
         <v>1.4195648953318599E-2</v>
       </c>
       <c r="D200">
-        <f t="shared" si="7"/>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="E200">
-        <f t="shared" si="6"/>
         <v>0</v>
       </c>
     </row>
@@ -7564,11 +7365,10 @@
         <v>1.5428514219820499E-2</v>
       </c>
       <c r="D201">
-        <f t="shared" si="7"/>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="E201">
-        <f t="shared" si="6"/>
         <v>0</v>
       </c>
     </row>
@@ -7583,11 +7383,10 @@
         <v>1.548896636813879E-2</v>
       </c>
       <c r="D202">
-        <f t="shared" si="7"/>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="E202">
-        <f t="shared" si="6"/>
         <v>0</v>
       </c>
     </row>
@@ -7602,11 +7401,10 @@
         <v>1.6721002757549289E-2</v>
       </c>
       <c r="D203">
-        <f t="shared" si="7"/>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="E203">
-        <f t="shared" si="6"/>
         <v>0</v>
       </c>
     </row>
@@ -7621,11 +7419,10 @@
         <v>1.4203806407749649E-2</v>
       </c>
       <c r="D204">
-        <f t="shared" si="7"/>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="E204">
-        <f t="shared" si="6"/>
         <v>0</v>
       </c>
     </row>
@@ -7640,11 +7437,10 @@
         <v>1.4290455728769301E-2</v>
       </c>
       <c r="D205">
-        <f t="shared" si="7"/>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="E205">
-        <f t="shared" si="6"/>
         <v>0</v>
       </c>
     </row>
@@ -7659,11 +7455,10 @@
         <v>1.461302675306797E-2</v>
       </c>
       <c r="D206">
-        <f t="shared" si="7"/>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="E206">
-        <f t="shared" si="6"/>
         <v>0</v>
       </c>
     </row>
@@ -7678,11 +7473,10 @@
         <v>2.783896587789059E-2</v>
       </c>
       <c r="D207">
-        <f t="shared" si="7"/>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="E207">
-        <f t="shared" si="6"/>
         <v>0</v>
       </c>
     </row>
@@ -7697,11 +7491,10 @@
         <v>1.496387366205454E-2</v>
       </c>
       <c r="D208">
-        <f t="shared" si="7"/>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="E208">
-        <f t="shared" si="6"/>
         <v>0</v>
       </c>
     </row>
@@ -7716,11 +7509,10 @@
         <v>0.98973631858825684</v>
       </c>
       <c r="D209">
-        <f t="shared" si="7"/>
+        <f t="shared" si="3"/>
         <v>1</v>
       </c>
       <c r="E209">
-        <f t="shared" si="6"/>
         <v>1</v>
       </c>
     </row>
@@ -7735,11 +7527,10 @@
         <v>1.419696304947138E-2</v>
       </c>
       <c r="D210">
-        <f t="shared" si="7"/>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="E210">
-        <f t="shared" si="6"/>
         <v>0</v>
       </c>
     </row>
@@ -7754,11 +7545,10 @@
         <v>6.1367735266685493E-2</v>
       </c>
       <c r="D211">
-        <f t="shared" si="7"/>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="E211">
-        <f t="shared" si="6"/>
         <v>0</v>
       </c>
     </row>
@@ -7773,11 +7563,10 @@
         <v>1.525001786649227E-2</v>
       </c>
       <c r="D212">
-        <f t="shared" si="7"/>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="E212">
-        <f t="shared" si="6"/>
         <v>0</v>
       </c>
     </row>
@@ -7792,11 +7581,10 @@
         <v>0.98953711986541748</v>
       </c>
       <c r="D213">
-        <f t="shared" si="7"/>
+        <f t="shared" si="3"/>
         <v>1</v>
       </c>
       <c r="E213">
-        <f t="shared" si="6"/>
         <v>1</v>
       </c>
     </row>
@@ -7811,11 +7599,10 @@
         <v>1.4216930605471131E-2</v>
       </c>
       <c r="D214">
-        <f t="shared" si="7"/>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="E214">
-        <f t="shared" si="6"/>
         <v>0</v>
       </c>
     </row>
@@ -7830,11 +7617,10 @@
         <v>2.1341413259506229E-2</v>
       </c>
       <c r="D215">
-        <f t="shared" si="7"/>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="E215">
-        <f t="shared" si="6"/>
         <v>0</v>
       </c>
     </row>
@@ -7849,11 +7635,10 @@
         <v>2.0402500405907631E-2</v>
       </c>
       <c r="D216">
-        <f t="shared" si="7"/>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="E216">
-        <f t="shared" si="6"/>
         <v>0</v>
       </c>
     </row>
@@ -7868,11 +7653,10 @@
         <v>1.5104026533663269E-2</v>
       </c>
       <c r="D217">
-        <f t="shared" si="7"/>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="E217">
-        <f t="shared" si="6"/>
         <v>0</v>
       </c>
     </row>
@@ -7887,11 +7671,10 @@
         <v>1.7476111650466919E-2</v>
       </c>
       <c r="D218">
-        <f t="shared" si="7"/>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="E218">
-        <f t="shared" si="6"/>
         <v>0</v>
       </c>
     </row>
@@ -7906,11 +7689,10 @@
         <v>2.4293417111039162E-2</v>
       </c>
       <c r="D219">
-        <f t="shared" si="7"/>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="E219">
-        <f t="shared" si="6"/>
         <v>0</v>
       </c>
     </row>
@@ -7925,11 +7707,10 @@
         <v>1.436384115368128E-2</v>
       </c>
       <c r="D220">
-        <f t="shared" si="7"/>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="E220">
-        <f t="shared" si="6"/>
         <v>0</v>
       </c>
     </row>
@@ -7944,11 +7725,10 @@
         <v>3.6291509866714478E-2</v>
       </c>
       <c r="D221">
-        <f t="shared" si="7"/>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="E221">
-        <f t="shared" si="6"/>
         <v>0</v>
       </c>
     </row>
@@ -7963,11 +7743,10 @@
         <v>0.77362072467803955</v>
       </c>
       <c r="D222">
-        <f t="shared" si="7"/>
+        <f t="shared" si="3"/>
         <v>1</v>
       </c>
       <c r="E222">
-        <f t="shared" si="6"/>
         <v>0</v>
       </c>
       <c r="F222">
@@ -7985,11 +7764,10 @@
         <v>1.4256118796765801E-2</v>
       </c>
       <c r="D223">
-        <f t="shared" si="7"/>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="E223">
-        <f t="shared" si="6"/>
         <v>0</v>
       </c>
     </row>
@@ -8004,11 +7782,10 @@
         <v>1.432288065552711E-2</v>
       </c>
       <c r="D224">
-        <f t="shared" si="7"/>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="E224">
-        <f t="shared" si="6"/>
         <v>0</v>
       </c>
     </row>
@@ -8023,11 +7800,10 @@
         <v>0.77362072467803955</v>
       </c>
       <c r="D225">
-        <f t="shared" si="7"/>
+        <f t="shared" si="3"/>
         <v>1</v>
       </c>
       <c r="E225">
-        <f t="shared" si="6"/>
         <v>0</v>
       </c>
       <c r="F225">
@@ -8045,11 +7821,10 @@
         <v>1.4168668538331991E-2</v>
       </c>
       <c r="D226">
-        <f t="shared" si="7"/>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="E226">
-        <f t="shared" si="6"/>
         <v>0</v>
       </c>
     </row>
@@ -8064,11 +7839,10 @@
         <v>1.440866757184267E-2</v>
       </c>
       <c r="D227">
-        <f t="shared" si="7"/>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="E227">
-        <f t="shared" si="6"/>
         <v>0</v>
       </c>
     </row>
@@ -8083,11 +7857,10 @@
         <v>1.4555674046278E-2</v>
       </c>
       <c r="D228">
-        <f t="shared" si="7"/>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="E228">
-        <f t="shared" si="6"/>
         <v>0</v>
       </c>
     </row>
@@ -8102,11 +7875,10 @@
         <v>1.4174638316035271E-2</v>
       </c>
       <c r="D229">
-        <f t="shared" si="7"/>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="E229">
-        <f t="shared" si="6"/>
         <v>0</v>
       </c>
     </row>
@@ -8121,11 +7893,10 @@
         <v>1.435883808881044E-2</v>
       </c>
       <c r="D230">
-        <f t="shared" si="7"/>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="E230">
-        <f t="shared" si="6"/>
         <v>0</v>
       </c>
     </row>
@@ -8140,11 +7911,10 @@
         <v>0.76320922374725342</v>
       </c>
       <c r="D231">
-        <f t="shared" si="7"/>
+        <f t="shared" si="3"/>
         <v>1</v>
       </c>
       <c r="E231">
-        <f t="shared" si="6"/>
         <v>0</v>
       </c>
       <c r="F231">
@@ -8162,11 +7932,10 @@
         <v>1.429843716323376E-2</v>
       </c>
       <c r="D232">
-        <f t="shared" si="7"/>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="E232">
-        <f t="shared" si="6"/>
         <v>0</v>
       </c>
     </row>
@@ -8181,11 +7950,10 @@
         <v>1.491994690150023E-2</v>
       </c>
       <c r="D233">
-        <f t="shared" si="7"/>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="E233">
-        <f t="shared" si="6"/>
         <v>0</v>
       </c>
     </row>
@@ -8200,11 +7968,10 @@
         <v>2.2336184978485111E-2</v>
       </c>
       <c r="D234">
-        <f t="shared" si="7"/>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="E234">
-        <f t="shared" si="6"/>
         <v>0</v>
       </c>
     </row>
@@ -8219,11 +7986,10 @@
         <v>1.455615274608135E-2</v>
       </c>
       <c r="D235">
-        <f t="shared" si="7"/>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="E235">
-        <f t="shared" si="6"/>
         <v>0</v>
       </c>
     </row>
@@ -8238,11 +8004,10 @@
         <v>1.8372945487499241E-2</v>
       </c>
       <c r="D236">
-        <f t="shared" si="7"/>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="E236">
-        <f t="shared" si="6"/>
         <v>0</v>
       </c>
     </row>
@@ -8257,11 +8022,10 @@
         <v>1.418681070208549E-2</v>
       </c>
       <c r="D237">
-        <f t="shared" si="7"/>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="E237">
-        <f t="shared" si="6"/>
         <v>0</v>
       </c>
     </row>
@@ -8276,11 +8040,10 @@
         <v>1.497230399399996E-2</v>
       </c>
       <c r="D238">
-        <f t="shared" si="7"/>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="E238">
-        <f t="shared" si="6"/>
         <v>0</v>
       </c>
     </row>
@@ -8295,11 +8058,10 @@
         <v>1.4267186634242529E-2</v>
       </c>
       <c r="D239">
-        <f t="shared" si="7"/>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="E239">
-        <f t="shared" si="6"/>
         <v>0</v>
       </c>
     </row>
@@ -8314,11 +8076,10 @@
         <v>1.421254780143499E-2</v>
       </c>
       <c r="D240">
-        <f t="shared" si="7"/>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="E240">
-        <f t="shared" si="6"/>
         <v>0</v>
       </c>
     </row>
@@ -8333,11 +8094,10 @@
         <v>1.420001499354839E-2</v>
       </c>
       <c r="D241">
-        <f t="shared" si="7"/>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="E241">
-        <f t="shared" si="6"/>
         <v>0</v>
       </c>
     </row>
@@ -8352,11 +8112,10 @@
         <v>2.5832327082753181E-2</v>
       </c>
       <c r="D242">
-        <f t="shared" si="7"/>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="E242">
-        <f t="shared" si="6"/>
         <v>0</v>
       </c>
     </row>
@@ -8371,11 +8130,10 @@
         <v>1.5360378660261629E-2</v>
       </c>
       <c r="D243">
-        <f t="shared" si="7"/>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="E243">
-        <f t="shared" si="6"/>
         <v>0</v>
       </c>
     </row>
@@ -8390,11 +8148,10 @@
         <v>1.429007854312658E-2</v>
       </c>
       <c r="D244">
-        <f t="shared" si="7"/>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="E244">
-        <f t="shared" si="6"/>
         <v>0</v>
       </c>
     </row>
@@ -8409,11 +8166,10 @@
         <v>1.416669134050608E-2</v>
       </c>
       <c r="D245">
-        <f t="shared" si="7"/>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="E245">
-        <f t="shared" si="6"/>
         <v>0</v>
       </c>
     </row>
@@ -8428,11 +8184,10 @@
         <v>0.45866245031356812</v>
       </c>
       <c r="D246">
-        <f t="shared" si="7"/>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="E246">
-        <f t="shared" si="6"/>
         <v>0</v>
       </c>
     </row>
@@ -8447,11 +8202,10 @@
         <v>3.6985240876674652E-2</v>
       </c>
       <c r="D247">
-        <f t="shared" si="7"/>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="E247">
-        <f t="shared" si="6"/>
         <v>0</v>
       </c>
     </row>
@@ -8466,11 +8220,10 @@
         <v>1.7815733328461651E-2</v>
       </c>
       <c r="D248">
-        <f t="shared" si="7"/>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="E248">
-        <f t="shared" si="6"/>
         <v>0</v>
       </c>
     </row>
@@ -8485,11 +8238,10 @@
         <v>1.630692183971405E-2</v>
       </c>
       <c r="D249">
-        <f t="shared" si="7"/>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="E249">
-        <f t="shared" si="6"/>
         <v>0</v>
       </c>
     </row>
@@ -8504,11 +8256,10 @@
         <v>4.1632913053035743E-2</v>
       </c>
       <c r="D250">
-        <f t="shared" si="7"/>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="E250">
-        <f t="shared" si="6"/>
         <v>0</v>
       </c>
     </row>
@@ -8523,11 +8274,10 @@
         <v>1.5783131122589111E-2</v>
       </c>
       <c r="D251">
-        <f t="shared" si="7"/>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="E251">
-        <f t="shared" si="6"/>
         <v>0</v>
       </c>
     </row>
@@ -8542,11 +8292,10 @@
         <v>0.33087736368179321</v>
       </c>
       <c r="D252">
-        <f t="shared" si="7"/>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="E252">
-        <f t="shared" si="6"/>
         <v>0</v>
       </c>
     </row>
@@ -8561,11 +8310,10 @@
         <v>1.4661070890724661E-2</v>
       </c>
       <c r="D253">
-        <f t="shared" si="7"/>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="E253">
-        <f t="shared" si="6"/>
         <v>0</v>
       </c>
     </row>
@@ -8580,11 +8328,10 @@
         <v>2.471796981990337E-2</v>
       </c>
       <c r="D254">
-        <f t="shared" si="7"/>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="E254">
-        <f t="shared" si="6"/>
         <v>0</v>
       </c>
     </row>
@@ -8599,11 +8346,10 @@
         <v>1.4211118221282961E-2</v>
       </c>
       <c r="D255">
-        <f t="shared" si="7"/>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="E255">
-        <f t="shared" si="6"/>
         <v>0</v>
       </c>
     </row>
@@ -8618,11 +8364,10 @@
         <v>1.5488435514271259E-2</v>
       </c>
       <c r="D256">
-        <f t="shared" si="7"/>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="E256">
-        <f t="shared" si="6"/>
         <v>0</v>
       </c>
     </row>
@@ -8637,11 +8382,10 @@
         <v>2.1576551720499989E-2</v>
       </c>
       <c r="D257">
-        <f t="shared" si="7"/>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="E257">
-        <f t="shared" si="6"/>
         <v>0</v>
       </c>
     </row>
@@ -8656,11 +8400,10 @@
         <v>2.2088209167122841E-2</v>
       </c>
       <c r="D258">
-        <f t="shared" si="7"/>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="E258">
-        <f t="shared" ref="E258:E321" si="8">IF(ISBLANK(F258),D258,F258)</f>
         <v>0</v>
       </c>
     </row>
@@ -8675,11 +8418,10 @@
         <v>2.3542916402220729E-2</v>
       </c>
       <c r="D259">
-        <f t="shared" ref="D259:D322" si="9">IF(C259&gt;0.5, 1, 0)</f>
+        <f t="shared" ref="D259:D322" si="4">IF(C259&gt;0.5, 1, 0)</f>
         <v>0</v>
       </c>
       <c r="E259">
-        <f t="shared" si="8"/>
         <v>0</v>
       </c>
     </row>
@@ -8694,11 +8436,10 @@
         <v>0.99059766530990601</v>
       </c>
       <c r="D260">
-        <f t="shared" si="9"/>
+        <f t="shared" si="4"/>
         <v>1</v>
       </c>
       <c r="E260">
-        <f t="shared" si="8"/>
         <v>1</v>
       </c>
     </row>
@@ -8713,11 +8454,10 @@
         <v>0.99059998989105225</v>
       </c>
       <c r="D261">
-        <f t="shared" si="9"/>
+        <f t="shared" si="4"/>
         <v>1</v>
       </c>
       <c r="E261">
-        <f t="shared" si="8"/>
         <v>1</v>
       </c>
     </row>
@@ -8732,11 +8472,10 @@
         <v>0.77973520755767822</v>
       </c>
       <c r="D262">
-        <f t="shared" si="9"/>
+        <f t="shared" si="4"/>
         <v>1</v>
       </c>
       <c r="E262">
-        <f t="shared" si="8"/>
         <v>0</v>
       </c>
       <c r="F262">
@@ -8754,11 +8493,10 @@
         <v>0.99042588472366333</v>
       </c>
       <c r="D263">
-        <f t="shared" si="9"/>
+        <f t="shared" si="4"/>
         <v>1</v>
       </c>
       <c r="E263">
-        <f t="shared" si="8"/>
         <v>1</v>
       </c>
     </row>
@@ -8773,11 +8511,10 @@
         <v>1.4906833879649641E-2</v>
       </c>
       <c r="D264">
-        <f t="shared" si="9"/>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="E264">
-        <f t="shared" si="8"/>
         <v>0</v>
       </c>
     </row>
@@ -8792,11 +8529,10 @@
         <v>1.4560072682797911E-2</v>
       </c>
       <c r="D265">
-        <f t="shared" si="9"/>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="E265">
-        <f t="shared" si="8"/>
         <v>0</v>
       </c>
     </row>
@@ -8811,11 +8547,10 @@
         <v>2.4954879656434059E-2</v>
       </c>
       <c r="D266">
-        <f t="shared" si="9"/>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="E266">
-        <f t="shared" si="8"/>
         <v>0</v>
       </c>
     </row>
@@ -8830,11 +8565,10 @@
         <v>1.4824488200247289E-2</v>
       </c>
       <c r="D267">
-        <f t="shared" si="9"/>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="E267">
-        <f t="shared" si="8"/>
         <v>0</v>
       </c>
     </row>
@@ -8849,11 +8583,10 @@
         <v>1.4178924262523649E-2</v>
       </c>
       <c r="D268">
-        <f t="shared" si="9"/>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="E268">
-        <f t="shared" si="8"/>
         <v>0</v>
       </c>
     </row>
@@ -8868,11 +8601,10 @@
         <v>0.9890446662902832</v>
       </c>
       <c r="D269">
-        <f t="shared" si="9"/>
+        <f t="shared" si="4"/>
         <v>1</v>
       </c>
       <c r="E269">
-        <f t="shared" si="8"/>
         <v>1</v>
       </c>
     </row>
@@ -8887,11 +8619,10 @@
         <v>0.93948972225189209</v>
       </c>
       <c r="D270">
-        <f t="shared" si="9"/>
+        <f t="shared" si="4"/>
         <v>1</v>
       </c>
       <c r="E270">
-        <f t="shared" si="8"/>
         <v>1</v>
       </c>
     </row>
@@ -8906,11 +8637,10 @@
         <v>0.91693156957626343</v>
       </c>
       <c r="D271">
-        <f t="shared" si="9"/>
+        <f t="shared" si="4"/>
         <v>1</v>
       </c>
       <c r="E271">
-        <f t="shared" si="8"/>
         <v>0</v>
       </c>
       <c r="F271">
@@ -8928,11 +8658,10 @@
         <v>0.98935341835021973</v>
       </c>
       <c r="D272">
-        <f t="shared" si="9"/>
+        <f t="shared" si="4"/>
         <v>1</v>
       </c>
       <c r="E272">
-        <f t="shared" si="8"/>
         <v>1</v>
       </c>
     </row>
@@ -8947,11 +8676,10 @@
         <v>0.99051511287689209</v>
       </c>
       <c r="D273">
-        <f t="shared" si="9"/>
+        <f t="shared" si="4"/>
         <v>1</v>
       </c>
       <c r="E273">
-        <f t="shared" si="8"/>
         <v>1</v>
       </c>
     </row>
@@ -8966,11 +8694,10 @@
         <v>2.9472718015313148E-2</v>
       </c>
       <c r="D274">
-        <f t="shared" si="9"/>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="E274">
-        <f t="shared" si="8"/>
         <v>0</v>
       </c>
     </row>
@@ -8985,11 +8712,10 @@
         <v>1.6474725678563121E-2</v>
       </c>
       <c r="D275">
-        <f t="shared" si="9"/>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="E275">
-        <f t="shared" si="8"/>
         <v>0</v>
       </c>
     </row>
@@ -9004,11 +8730,10 @@
         <v>1.4752852730453009E-2</v>
       </c>
       <c r="D276">
-        <f t="shared" si="9"/>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="E276">
-        <f t="shared" si="8"/>
         <v>0</v>
       </c>
     </row>
@@ -9023,11 +8748,10 @@
         <v>3.1160114333033562E-2</v>
       </c>
       <c r="D277">
-        <f t="shared" si="9"/>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="E277">
-        <f t="shared" si="8"/>
         <v>0</v>
       </c>
     </row>
@@ -9042,11 +8766,10 @@
         <v>3.40430848300457E-2</v>
       </c>
       <c r="D278">
-        <f t="shared" si="9"/>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="E278">
-        <f t="shared" si="8"/>
         <v>0</v>
       </c>
     </row>
@@ -9061,11 +8784,10 @@
         <v>2.063161879777908E-2</v>
       </c>
       <c r="D279">
-        <f t="shared" si="9"/>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="E279">
-        <f t="shared" si="8"/>
         <v>0</v>
       </c>
     </row>
@@ -9080,11 +8802,10 @@
         <v>1.481044758111238E-2</v>
       </c>
       <c r="D280">
-        <f t="shared" si="9"/>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="E280">
-        <f t="shared" si="8"/>
         <v>0</v>
       </c>
     </row>
@@ -9099,11 +8820,10 @@
         <v>2.591254003345966E-2</v>
       </c>
       <c r="D281">
-        <f t="shared" si="9"/>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="E281">
-        <f t="shared" si="8"/>
         <v>0</v>
       </c>
     </row>
@@ -9118,11 +8838,10 @@
         <v>1.492960657924414E-2</v>
       </c>
       <c r="D282">
-        <f t="shared" si="9"/>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="E282">
-        <f t="shared" si="8"/>
         <v>0</v>
       </c>
     </row>
@@ -9137,11 +8856,10 @@
         <v>2.8471320867538449E-2</v>
       </c>
       <c r="D283">
-        <f t="shared" si="9"/>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="E283">
-        <f t="shared" si="8"/>
         <v>0</v>
       </c>
     </row>
@@ -9156,11 +8874,10 @@
         <v>0.33110368251800543</v>
       </c>
       <c r="D284">
-        <f t="shared" si="9"/>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="E284">
-        <f t="shared" si="8"/>
         <v>0</v>
       </c>
     </row>
@@ -9175,11 +8892,10 @@
         <v>3.9290975779294968E-2</v>
       </c>
       <c r="D285">
-        <f t="shared" si="9"/>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="E285">
-        <f t="shared" si="8"/>
         <v>0</v>
       </c>
     </row>
@@ -9194,11 +8910,10 @@
         <v>1.8961340188980099E-2</v>
       </c>
       <c r="D286">
-        <f t="shared" si="9"/>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="E286">
-        <f t="shared" si="8"/>
         <v>0</v>
       </c>
     </row>
@@ -9213,11 +8928,10 @@
         <v>0.97521847486495972</v>
       </c>
       <c r="D287">
-        <f t="shared" si="9"/>
+        <f t="shared" si="4"/>
         <v>1</v>
       </c>
       <c r="E287">
-        <f t="shared" si="8"/>
         <v>0</v>
       </c>
       <c r="F287">
@@ -9235,11 +8949,10 @@
         <v>0.33099612593650818</v>
       </c>
       <c r="D288">
-        <f t="shared" si="9"/>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="E288">
-        <f t="shared" si="8"/>
         <v>0</v>
       </c>
     </row>
@@ -9254,11 +8967,10 @@
         <v>1.4364277943968769E-2</v>
       </c>
       <c r="D289">
-        <f t="shared" si="9"/>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="E289">
-        <f t="shared" si="8"/>
         <v>0</v>
       </c>
     </row>
@@ -9273,11 +8985,10 @@
         <v>2.350879646837711E-2</v>
       </c>
       <c r="D290">
-        <f t="shared" si="9"/>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="E290">
-        <f t="shared" si="8"/>
         <v>0</v>
       </c>
     </row>
@@ -9292,11 +9003,10 @@
         <v>1.480388827621937E-2</v>
       </c>
       <c r="D291">
-        <f t="shared" si="9"/>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="E291">
-        <f t="shared" si="8"/>
         <v>0</v>
       </c>
     </row>
@@ -9311,11 +9021,10 @@
         <v>3.3227220177650452E-2</v>
       </c>
       <c r="D292">
-        <f t="shared" si="9"/>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="E292">
-        <f t="shared" si="8"/>
         <v>0</v>
       </c>
     </row>
@@ -9330,11 +9039,10 @@
         <v>1.5745259821414951E-2</v>
       </c>
       <c r="D293">
-        <f t="shared" si="9"/>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="E293">
-        <f t="shared" si="8"/>
         <v>0</v>
       </c>
     </row>
@@ -9349,11 +9057,10 @@
         <v>1.4403819106519221E-2</v>
       </c>
       <c r="D294">
-        <f t="shared" si="9"/>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="E294">
-        <f t="shared" si="8"/>
         <v>0</v>
       </c>
     </row>
@@ -9368,11 +9075,10 @@
         <v>1.9838375970721241E-2</v>
       </c>
       <c r="D295">
-        <f t="shared" si="9"/>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="E295">
-        <f t="shared" si="8"/>
         <v>0</v>
       </c>
     </row>
@@ -9387,11 +9093,10 @@
         <v>1.48059818893671E-2</v>
       </c>
       <c r="D296">
-        <f t="shared" si="9"/>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="E296">
-        <f t="shared" si="8"/>
         <v>0</v>
       </c>
     </row>
@@ -9406,11 +9111,10 @@
         <v>0.33108261227607733</v>
       </c>
       <c r="D297">
-        <f t="shared" si="9"/>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="E297">
-        <f t="shared" si="8"/>
         <v>0</v>
       </c>
     </row>
@@ -9425,11 +9129,10 @@
         <v>4.946407675743103E-2</v>
       </c>
       <c r="D298">
-        <f t="shared" si="9"/>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="E298">
-        <f t="shared" si="8"/>
         <v>0</v>
       </c>
     </row>
@@ -9444,11 +9147,10 @@
         <v>1.9505878910422329E-2</v>
       </c>
       <c r="D299">
-        <f t="shared" si="9"/>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="E299">
-        <f t="shared" si="8"/>
         <v>0</v>
       </c>
     </row>
@@ -9463,11 +9165,10 @@
         <v>1.451002154499292E-2</v>
       </c>
       <c r="D300">
-        <f t="shared" si="9"/>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="E300">
-        <f t="shared" si="8"/>
         <v>0</v>
       </c>
     </row>
@@ -9482,11 +9183,10 @@
         <v>1.419031899422407E-2</v>
       </c>
       <c r="D301">
-        <f t="shared" si="9"/>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="E301">
-        <f t="shared" si="8"/>
         <v>0</v>
       </c>
     </row>
@@ -9501,11 +9201,10 @@
         <v>1.4667326584458349E-2</v>
       </c>
       <c r="D302">
-        <f t="shared" si="9"/>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="E302">
-        <f t="shared" si="8"/>
         <v>0</v>
       </c>
     </row>
@@ -9520,11 +9219,10 @@
         <v>0.98388701677322388</v>
       </c>
       <c r="D303">
-        <f t="shared" si="9"/>
+        <f t="shared" si="4"/>
         <v>1</v>
       </c>
       <c r="E303">
-        <f t="shared" si="8"/>
         <v>0</v>
       </c>
       <c r="F303">
@@ -9542,11 +9240,10 @@
         <v>1.483043562620878E-2</v>
       </c>
       <c r="D304">
-        <f t="shared" si="9"/>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="E304">
-        <f t="shared" si="8"/>
         <v>0</v>
       </c>
     </row>
@@ -9561,11 +9258,10 @@
         <v>1.4298880472779271E-2</v>
       </c>
       <c r="D305">
-        <f t="shared" si="9"/>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="E305">
-        <f t="shared" si="8"/>
         <v>0</v>
       </c>
     </row>
@@ -9580,11 +9276,10 @@
         <v>5.7009700685739517E-2</v>
       </c>
       <c r="D306">
-        <f t="shared" si="9"/>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="E306">
-        <f t="shared" si="8"/>
         <v>0</v>
       </c>
     </row>
@@ -9599,11 +9294,10 @@
         <v>2.314110845327377E-2</v>
       </c>
       <c r="D307">
-        <f t="shared" si="9"/>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="E307">
-        <f t="shared" si="8"/>
         <v>0</v>
       </c>
     </row>
@@ -9618,11 +9312,10 @@
         <v>2.8280593454837799E-2</v>
       </c>
       <c r="D308">
-        <f t="shared" si="9"/>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="E308">
-        <f t="shared" si="8"/>
         <v>0</v>
       </c>
     </row>
@@ -9637,11 +9330,10 @@
         <v>6.3119836151599884E-2</v>
       </c>
       <c r="D309">
-        <f t="shared" si="9"/>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="E309">
-        <f t="shared" si="8"/>
         <v>0</v>
       </c>
     </row>
@@ -9656,11 +9348,10 @@
         <v>2.5557113811373711E-2</v>
       </c>
       <c r="D310">
-        <f t="shared" si="9"/>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="E310">
-        <f t="shared" si="8"/>
         <v>0</v>
       </c>
     </row>
@@ -9675,11 +9366,10 @@
         <v>1.4808660373091699E-2</v>
       </c>
       <c r="D311">
-        <f t="shared" si="9"/>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="E311">
-        <f t="shared" si="8"/>
         <v>0</v>
       </c>
     </row>
@@ -9694,11 +9384,10 @@
         <v>1.4401687309145929E-2</v>
       </c>
       <c r="D312">
-        <f t="shared" si="9"/>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="E312">
-        <f t="shared" si="8"/>
         <v>0</v>
       </c>
     </row>
@@ -9713,11 +9402,10 @@
         <v>6.979602575302124E-2</v>
       </c>
       <c r="D313">
-        <f t="shared" si="9"/>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="E313">
-        <f t="shared" si="8"/>
         <v>0</v>
       </c>
     </row>
@@ -9732,11 +9420,10 @@
         <v>1.4179263263940809E-2</v>
       </c>
       <c r="D314">
-        <f t="shared" si="9"/>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="E314">
-        <f t="shared" si="8"/>
         <v>0</v>
       </c>
     </row>
@@ -9751,11 +9438,10 @@
         <v>0.99045300483703613</v>
       </c>
       <c r="D315">
-        <f t="shared" si="9"/>
+        <f t="shared" si="4"/>
         <v>1</v>
       </c>
       <c r="E315">
-        <f t="shared" si="8"/>
         <v>1</v>
       </c>
     </row>
@@ -9770,11 +9456,10 @@
         <v>1.5967616811394691E-2</v>
       </c>
       <c r="D316">
-        <f t="shared" si="9"/>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="E316">
-        <f t="shared" si="8"/>
         <v>0</v>
       </c>
     </row>
@@ -9789,11 +9474,10 @@
         <v>1.578245684504509E-2</v>
       </c>
       <c r="D317">
-        <f t="shared" si="9"/>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="E317">
-        <f t="shared" si="8"/>
         <v>0</v>
       </c>
     </row>
@@ -9808,11 +9492,10 @@
         <v>1.431378163397312E-2</v>
       </c>
       <c r="D318">
-        <f t="shared" si="9"/>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="E318">
-        <f t="shared" si="8"/>
         <v>0</v>
       </c>
     </row>
@@ -9827,11 +9510,10 @@
         <v>0.93762242794036865</v>
       </c>
       <c r="D319">
-        <f t="shared" si="9"/>
+        <f t="shared" si="4"/>
         <v>1</v>
       </c>
       <c r="E319">
-        <f t="shared" si="8"/>
         <v>1</v>
       </c>
     </row>
@@ -9846,11 +9528,10 @@
         <v>1.471278257668018E-2</v>
       </c>
       <c r="D320">
-        <f t="shared" si="9"/>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="E320">
-        <f t="shared" si="8"/>
         <v>0</v>
       </c>
     </row>
@@ -9865,11 +9546,10 @@
         <v>1.4629596844315531E-2</v>
       </c>
       <c r="D321">
-        <f t="shared" si="9"/>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="E321">
-        <f t="shared" si="8"/>
         <v>0</v>
       </c>
     </row>
@@ -9884,11 +9564,10 @@
         <v>2.0905628800392151E-2</v>
       </c>
       <c r="D322">
-        <f t="shared" si="9"/>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="E322">
-        <f t="shared" ref="E322:E385" si="10">IF(ISBLANK(F322),D322,F322)</f>
         <v>0</v>
       </c>
     </row>
@@ -9903,11 +9582,10 @@
         <v>1.458636857569218E-2</v>
       </c>
       <c r="D323">
-        <f t="shared" ref="D323:D386" si="11">IF(C323&gt;0.5, 1, 0)</f>
+        <f t="shared" ref="D323:D386" si="5">IF(C323&gt;0.5, 1, 0)</f>
         <v>0</v>
       </c>
       <c r="E323">
-        <f t="shared" si="10"/>
         <v>0</v>
       </c>
     </row>
@@ -9922,11 +9600,10 @@
         <v>2.1114161238074299E-2</v>
       </c>
       <c r="D324">
-        <f t="shared" si="11"/>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
       <c r="E324">
-        <f t="shared" si="10"/>
         <v>0</v>
       </c>
     </row>
@@ -9941,11 +9618,10 @@
         <v>0.13085559010505679</v>
       </c>
       <c r="D325">
-        <f t="shared" si="11"/>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
       <c r="E325">
-        <f t="shared" si="10"/>
         <v>0</v>
       </c>
     </row>
@@ -9960,11 +9636,10 @@
         <v>0.35002920031547552</v>
       </c>
       <c r="D326">
-        <f t="shared" si="11"/>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
       <c r="E326">
-        <f t="shared" si="10"/>
         <v>0</v>
       </c>
     </row>
@@ -9979,11 +9654,10 @@
         <v>1.563030481338501E-2</v>
       </c>
       <c r="D327">
-        <f t="shared" si="11"/>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
       <c r="E327">
-        <f t="shared" si="10"/>
         <v>0</v>
       </c>
     </row>
@@ -9998,11 +9672,10 @@
         <v>1.4704214408993719E-2</v>
       </c>
       <c r="D328">
-        <f t="shared" si="11"/>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
       <c r="E328">
-        <f t="shared" si="10"/>
         <v>0</v>
       </c>
     </row>
@@ -10017,11 +9690,10 @@
         <v>1.6871396452188488E-2</v>
       </c>
       <c r="D329">
-        <f t="shared" si="11"/>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
       <c r="E329">
-        <f t="shared" si="10"/>
         <v>0</v>
       </c>
     </row>
@@ -10036,11 +9708,10 @@
         <v>1.453986205160618E-2</v>
       </c>
       <c r="D330">
-        <f t="shared" si="11"/>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
       <c r="E330">
-        <f t="shared" si="10"/>
         <v>0</v>
       </c>
     </row>
@@ -10055,11 +9726,10 @@
         <v>1.667175255715847E-2</v>
       </c>
       <c r="D331">
-        <f t="shared" si="11"/>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
       <c r="E331">
-        <f t="shared" si="10"/>
         <v>0</v>
       </c>
     </row>
@@ -10074,11 +9744,10 @@
         <v>1.437385566532612E-2</v>
       </c>
       <c r="D332">
-        <f t="shared" si="11"/>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
       <c r="E332">
-        <f t="shared" si="10"/>
         <v>0</v>
       </c>
     </row>
@@ -10093,11 +9762,10 @@
         <v>0.33109018206596369</v>
       </c>
       <c r="D333">
-        <f t="shared" si="11"/>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
       <c r="E333">
-        <f t="shared" si="10"/>
         <v>0</v>
       </c>
     </row>
@@ -10112,11 +9780,10 @@
         <v>1.440046261996031E-2</v>
       </c>
       <c r="D334">
-        <f t="shared" si="11"/>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
       <c r="E334">
-        <f t="shared" si="10"/>
         <v>0</v>
       </c>
     </row>
@@ -10131,11 +9798,10 @@
         <v>0.72805523872375488</v>
       </c>
       <c r="D335">
-        <f t="shared" si="11"/>
+        <f t="shared" si="5"/>
         <v>1</v>
       </c>
       <c r="E335">
-        <f t="shared" si="10"/>
         <v>0</v>
       </c>
       <c r="F335">
@@ -10153,11 +9819,10 @@
         <v>2.179881185293198E-2</v>
       </c>
       <c r="D336">
-        <f t="shared" si="11"/>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
       <c r="E336">
-        <f t="shared" si="10"/>
         <v>0</v>
       </c>
     </row>
@@ -10172,11 +9837,10 @@
         <v>1.6874916851520538E-2</v>
       </c>
       <c r="D337">
-        <f t="shared" si="11"/>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
       <c r="E337">
-        <f t="shared" si="10"/>
         <v>0</v>
       </c>
     </row>
@@ -10191,11 +9855,10 @@
         <v>0.32343253493309021</v>
       </c>
       <c r="D338">
-        <f t="shared" si="11"/>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
       <c r="E338">
-        <f t="shared" si="10"/>
         <v>0</v>
       </c>
     </row>
@@ -10210,11 +9873,10 @@
         <v>1.6279697418212891E-2</v>
       </c>
       <c r="D339">
-        <f t="shared" si="11"/>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
       <c r="E339">
-        <f t="shared" si="10"/>
         <v>0</v>
       </c>
     </row>
@@ -10229,11 +9891,10 @@
         <v>1.458810921758413E-2</v>
       </c>
       <c r="D340">
-        <f t="shared" si="11"/>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
       <c r="E340">
-        <f t="shared" si="10"/>
         <v>0</v>
       </c>
     </row>
@@ -10248,11 +9909,10 @@
         <v>1.450616307556629E-2</v>
       </c>
       <c r="D341">
-        <f t="shared" si="11"/>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
       <c r="E341">
-        <f t="shared" si="10"/>
         <v>0</v>
       </c>
     </row>
@@ -10267,11 +9927,10 @@
         <v>0.99058455228805542</v>
       </c>
       <c r="D342">
-        <f t="shared" si="11"/>
+        <f t="shared" si="5"/>
         <v>1</v>
       </c>
       <c r="E342">
-        <f t="shared" si="10"/>
         <v>1</v>
       </c>
     </row>
@@ -10286,11 +9945,10 @@
         <v>1.4579488895833491E-2</v>
       </c>
       <c r="D343">
-        <f t="shared" si="11"/>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
       <c r="E343">
-        <f t="shared" si="10"/>
         <v>0</v>
       </c>
     </row>
@@ -10305,11 +9963,10 @@
         <v>1.5294212847948069E-2</v>
       </c>
       <c r="D344">
-        <f t="shared" si="11"/>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
       <c r="E344">
-        <f t="shared" si="10"/>
         <v>0</v>
       </c>
     </row>
@@ -10324,11 +9981,10 @@
         <v>1.463860459625721E-2</v>
       </c>
       <c r="D345">
-        <f t="shared" si="11"/>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
       <c r="E345">
-        <f t="shared" si="10"/>
         <v>0</v>
       </c>
     </row>
@@ -10343,11 +9999,10 @@
         <v>1.5616063959896559E-2</v>
       </c>
       <c r="D346">
-        <f t="shared" si="11"/>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
       <c r="E346">
-        <f t="shared" si="10"/>
         <v>0</v>
       </c>
     </row>
@@ -10362,11 +10017,10 @@
         <v>1.425382774323225E-2</v>
       </c>
       <c r="D347">
-        <f t="shared" si="11"/>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
       <c r="E347">
-        <f t="shared" si="10"/>
         <v>0</v>
       </c>
     </row>
@@ -10381,11 +10035,10 @@
         <v>0.99058645963668823</v>
       </c>
       <c r="D348">
-        <f t="shared" si="11"/>
+        <f t="shared" si="5"/>
         <v>1</v>
       </c>
       <c r="E348">
-        <f t="shared" si="10"/>
         <v>1</v>
       </c>
     </row>
@@ -10400,11 +10053,10 @@
         <v>1.4425165019929411E-2</v>
       </c>
       <c r="D349">
-        <f t="shared" si="11"/>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
       <c r="E349">
-        <f t="shared" si="10"/>
         <v>0</v>
       </c>
     </row>
@@ -10419,11 +10071,10 @@
         <v>1.537934225052595E-2</v>
       </c>
       <c r="D350">
-        <f t="shared" si="11"/>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
       <c r="E350">
-        <f t="shared" si="10"/>
         <v>0</v>
       </c>
     </row>
@@ -10438,11 +10089,10 @@
         <v>8.964906632900238E-2</v>
       </c>
       <c r="D351">
-        <f t="shared" si="11"/>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
       <c r="E351">
-        <f t="shared" si="10"/>
         <v>0</v>
       </c>
     </row>
@@ -10457,11 +10107,10 @@
         <v>0.99034649133682251</v>
       </c>
       <c r="D352">
-        <f t="shared" si="11"/>
+        <f t="shared" si="5"/>
         <v>1</v>
       </c>
       <c r="E352">
-        <f t="shared" si="10"/>
         <v>1</v>
       </c>
     </row>
@@ -10476,11 +10125,10 @@
         <v>2.262081578373909E-2</v>
       </c>
       <c r="D353">
-        <f t="shared" si="11"/>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
       <c r="E353">
-        <f t="shared" si="10"/>
         <v>0</v>
       </c>
     </row>
@@ -10495,11 +10143,10 @@
         <v>1.5052905306220049E-2</v>
       </c>
       <c r="D354">
-        <f t="shared" si="11"/>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
       <c r="E354">
-        <f t="shared" si="10"/>
         <v>0</v>
       </c>
     </row>
@@ -10514,11 +10161,10 @@
         <v>1.4436932280659681E-2</v>
       </c>
       <c r="D355">
-        <f t="shared" si="11"/>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
       <c r="E355">
-        <f t="shared" si="10"/>
         <v>0</v>
       </c>
     </row>
@@ -10533,11 +10179,10 @@
         <v>1.436612196266651E-2</v>
       </c>
       <c r="D356">
-        <f t="shared" si="11"/>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
       <c r="E356">
-        <f t="shared" si="10"/>
         <v>0</v>
       </c>
     </row>
@@ -10552,11 +10197,10 @@
         <v>1.435879152268171E-2</v>
       </c>
       <c r="D357">
-        <f t="shared" si="11"/>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
       <c r="E357">
-        <f t="shared" si="10"/>
         <v>0</v>
       </c>
     </row>
@@ -10571,11 +10215,10 @@
         <v>1.517334394156933E-2</v>
       </c>
       <c r="D358">
-        <f t="shared" si="11"/>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
       <c r="E358">
-        <f t="shared" si="10"/>
         <v>0</v>
       </c>
     </row>
@@ -10590,11 +10233,10 @@
         <v>0.9906313419342041</v>
       </c>
       <c r="D359">
-        <f t="shared" si="11"/>
+        <f t="shared" si="5"/>
         <v>1</v>
       </c>
       <c r="E359">
-        <f t="shared" si="10"/>
         <v>0</v>
       </c>
       <c r="F359">
@@ -10612,11 +10254,10 @@
         <v>0.8902701735496521</v>
       </c>
       <c r="D360">
-        <f t="shared" si="11"/>
+        <f t="shared" si="5"/>
         <v>1</v>
       </c>
       <c r="E360">
-        <f t="shared" si="10"/>
         <v>0</v>
       </c>
       <c r="F360">
@@ -10634,11 +10275,10 @@
         <v>1.445806119590998E-2</v>
       </c>
       <c r="D361">
-        <f t="shared" si="11"/>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
       <c r="E361">
-        <f t="shared" si="10"/>
         <v>0</v>
       </c>
     </row>
@@ -10653,11 +10293,10 @@
         <v>1.5842245891690251E-2</v>
       </c>
       <c r="D362">
-        <f t="shared" si="11"/>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
       <c r="E362">
-        <f t="shared" si="10"/>
         <v>0</v>
       </c>
     </row>
@@ -10672,11 +10311,10 @@
         <v>1.450255792587996E-2</v>
       </c>
       <c r="D363">
-        <f t="shared" si="11"/>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
       <c r="E363">
-        <f t="shared" si="10"/>
         <v>0</v>
       </c>
     </row>
@@ -10691,11 +10329,10 @@
         <v>1.4288682490587229E-2</v>
       </c>
       <c r="D364">
-        <f t="shared" si="11"/>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
       <c r="E364">
-        <f t="shared" si="10"/>
         <v>0</v>
       </c>
     </row>
@@ -10710,11 +10347,10 @@
         <v>1.416571903973818E-2</v>
       </c>
       <c r="D365">
-        <f t="shared" si="11"/>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
       <c r="E365">
-        <f t="shared" si="10"/>
         <v>0</v>
       </c>
     </row>
@@ -10729,11 +10365,10 @@
         <v>1.439144369214773E-2</v>
       </c>
       <c r="D366">
-        <f t="shared" si="11"/>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
       <c r="E366">
-        <f t="shared" si="10"/>
         <v>0</v>
       </c>
     </row>
@@ -10748,11 +10383,10 @@
         <v>1.4792069792747499E-2</v>
       </c>
       <c r="D367">
-        <f t="shared" si="11"/>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
       <c r="E367">
-        <f t="shared" si="10"/>
         <v>0</v>
       </c>
     </row>
@@ -10767,11 +10401,10 @@
         <v>1.4261814765632151E-2</v>
       </c>
       <c r="D368">
-        <f t="shared" si="11"/>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
       <c r="E368">
-        <f t="shared" si="10"/>
         <v>0</v>
       </c>
     </row>
@@ -10786,11 +10419,10 @@
         <v>1.4483665116131309E-2</v>
       </c>
       <c r="D369">
-        <f t="shared" si="11"/>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
       <c r="E369">
-        <f t="shared" si="10"/>
         <v>0</v>
       </c>
     </row>
@@ -10805,11 +10437,10 @@
         <v>0.86322158575057983</v>
       </c>
       <c r="D370">
-        <f t="shared" si="11"/>
+        <f t="shared" si="5"/>
         <v>1</v>
       </c>
       <c r="E370">
-        <f t="shared" si="10"/>
         <v>1</v>
       </c>
     </row>
@@ -10824,11 +10455,10 @@
         <v>3.1606007367372513E-2</v>
       </c>
       <c r="D371">
-        <f t="shared" si="11"/>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
       <c r="E371">
-        <f t="shared" si="10"/>
         <v>0</v>
       </c>
     </row>
@@ -10843,11 +10473,10 @@
         <v>1.423568278551102E-2</v>
       </c>
       <c r="D372">
-        <f t="shared" si="11"/>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
       <c r="E372">
-        <f t="shared" si="10"/>
         <v>0</v>
       </c>
     </row>
@@ -10862,11 +10491,10 @@
         <v>0.99057847261428833</v>
       </c>
       <c r="D373">
-        <f t="shared" si="11"/>
+        <f t="shared" si="5"/>
         <v>1</v>
       </c>
       <c r="E373">
-        <f t="shared" si="10"/>
         <v>1</v>
       </c>
     </row>
@@ -10881,11 +10509,10 @@
         <v>8.003215491771698E-2</v>
       </c>
       <c r="D374">
-        <f t="shared" si="11"/>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
       <c r="E374">
-        <f t="shared" si="10"/>
         <v>0</v>
       </c>
     </row>
@@ -10900,11 +10527,10 @@
         <v>7.6761998236179352E-2</v>
       </c>
       <c r="D375">
-        <f t="shared" si="11"/>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
       <c r="E375">
-        <f t="shared" si="10"/>
         <v>0</v>
       </c>
     </row>
@@ -10919,11 +10545,10 @@
         <v>1.434775535017252E-2</v>
       </c>
       <c r="D376">
-        <f t="shared" si="11"/>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
       <c r="E376">
-        <f t="shared" si="10"/>
         <v>0</v>
       </c>
     </row>
@@ -10938,11 +10563,10 @@
         <v>1.529432833194733E-2</v>
       </c>
       <c r="D377">
-        <f t="shared" si="11"/>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
       <c r="E377">
-        <f t="shared" si="10"/>
         <v>0</v>
       </c>
     </row>
@@ -10957,11 +10581,10 @@
         <v>1.443449035286903E-2</v>
       </c>
       <c r="D378">
-        <f t="shared" si="11"/>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
       <c r="E378">
-        <f t="shared" si="10"/>
         <v>0</v>
       </c>
     </row>
@@ -10976,11 +10599,10 @@
         <v>2.1577807143330571E-2</v>
       </c>
       <c r="D379">
-        <f t="shared" si="11"/>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
       <c r="E379">
-        <f t="shared" si="10"/>
         <v>0</v>
       </c>
     </row>
@@ -10995,11 +10617,10 @@
         <v>0.33111760020256042</v>
       </c>
       <c r="D380">
-        <f t="shared" si="11"/>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
       <c r="E380">
-        <f t="shared" si="10"/>
         <v>0</v>
       </c>
     </row>
@@ -11014,11 +10635,10 @@
         <v>1.7635250464081761E-2</v>
       </c>
       <c r="D381">
-        <f t="shared" si="11"/>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
       <c r="E381">
-        <f t="shared" si="10"/>
         <v>0</v>
       </c>
     </row>
@@ -11033,11 +10653,10 @@
         <v>3.5323832184076309E-2</v>
       </c>
       <c r="D382">
-        <f t="shared" si="11"/>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
       <c r="E382">
-        <f t="shared" si="10"/>
         <v>0</v>
       </c>
     </row>
@@ -11052,11 +10671,10 @@
         <v>1.4706846326589579E-2</v>
       </c>
       <c r="D383">
-        <f t="shared" si="11"/>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
       <c r="E383">
-        <f t="shared" si="10"/>
         <v>0</v>
       </c>
     </row>
@@ -11071,11 +10689,10 @@
         <v>6.9977827370166779E-2</v>
       </c>
       <c r="D384">
-        <f t="shared" si="11"/>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
       <c r="E384">
-        <f t="shared" si="10"/>
         <v>0</v>
       </c>
     </row>
@@ -11090,11 +10707,10 @@
         <v>0.91759032011032104</v>
       </c>
       <c r="D385">
-        <f t="shared" si="11"/>
+        <f t="shared" si="5"/>
         <v>1</v>
       </c>
       <c r="E385">
-        <f t="shared" si="10"/>
         <v>0</v>
       </c>
       <c r="F385">
@@ -11112,11 +10728,10 @@
         <v>1.452898327261209E-2</v>
       </c>
       <c r="D386">
-        <f t="shared" si="11"/>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
       <c r="E386">
-        <f t="shared" ref="E386:E449" si="12">IF(ISBLANK(F386),D386,F386)</f>
         <v>0</v>
       </c>
     </row>
@@ -11131,11 +10746,10 @@
         <v>1.6023477539420131E-2</v>
       </c>
       <c r="D387">
-        <f t="shared" ref="D387:D450" si="13">IF(C387&gt;0.5, 1, 0)</f>
+        <f t="shared" ref="D387:D450" si="6">IF(C387&gt;0.5, 1, 0)</f>
         <v>0</v>
       </c>
       <c r="E387">
-        <f t="shared" si="12"/>
         <v>0</v>
       </c>
     </row>
@@ -11150,11 +10764,10 @@
         <v>1.415808964520693E-2</v>
       </c>
       <c r="D388">
-        <f t="shared" si="13"/>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
       <c r="E388">
-        <f t="shared" si="12"/>
         <v>0</v>
       </c>
     </row>
@@ -11169,11 +10782,10 @@
         <v>1.4605008997023111E-2</v>
       </c>
       <c r="D389">
-        <f t="shared" si="13"/>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
       <c r="E389">
-        <f t="shared" si="12"/>
         <v>0</v>
       </c>
     </row>
@@ -11188,11 +10800,10 @@
         <v>0.94035649299621582</v>
       </c>
       <c r="D390">
-        <f t="shared" si="13"/>
+        <f t="shared" si="6"/>
         <v>1</v>
       </c>
       <c r="E390">
-        <f t="shared" si="12"/>
         <v>0</v>
       </c>
       <c r="F390">
@@ -11210,11 +10821,10 @@
         <v>1.5735669061541561E-2</v>
       </c>
       <c r="D391">
-        <f t="shared" si="13"/>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
       <c r="E391">
-        <f t="shared" si="12"/>
         <v>0</v>
       </c>
     </row>
@@ -11229,11 +10839,10 @@
         <v>1.4753552153706551E-2</v>
       </c>
       <c r="D392">
-        <f t="shared" si="13"/>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
       <c r="E392">
-        <f t="shared" si="12"/>
         <v>0</v>
       </c>
     </row>
@@ -11248,11 +10857,10 @@
         <v>1.460312865674496E-2</v>
       </c>
       <c r="D393">
-        <f t="shared" si="13"/>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
       <c r="E393">
-        <f t="shared" si="12"/>
         <v>0</v>
       </c>
     </row>
@@ -11267,11 +10875,10 @@
         <v>1.516322884708643E-2</v>
       </c>
       <c r="D394">
-        <f t="shared" si="13"/>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
       <c r="E394">
-        <f t="shared" si="12"/>
         <v>0</v>
       </c>
     </row>
@@ -11286,11 +10893,10 @@
         <v>1.4169394038617609E-2</v>
       </c>
       <c r="D395">
-        <f t="shared" si="13"/>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
       <c r="E395">
-        <f t="shared" si="12"/>
         <v>0</v>
       </c>
     </row>
@@ -11305,11 +10911,10 @@
         <v>0.33087736368179321</v>
       </c>
       <c r="D396">
-        <f t="shared" si="13"/>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
       <c r="E396">
-        <f t="shared" si="12"/>
         <v>0</v>
       </c>
     </row>
@@ -11324,11 +10929,10 @@
         <v>5.1601987332105637E-2</v>
       </c>
       <c r="D397">
-        <f t="shared" si="13"/>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
       <c r="E397">
-        <f t="shared" si="12"/>
         <v>0</v>
       </c>
     </row>
@@ -11343,11 +10947,10 @@
         <v>0.18863293528556821</v>
       </c>
       <c r="D398">
-        <f t="shared" si="13"/>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
       <c r="E398">
-        <f t="shared" si="12"/>
         <v>0</v>
       </c>
     </row>
@@ -11362,11 +10965,10 @@
         <v>0.90886110067367554</v>
       </c>
       <c r="D399">
-        <f t="shared" si="13"/>
+        <f t="shared" si="6"/>
         <v>1</v>
       </c>
       <c r="E399">
-        <f t="shared" si="12"/>
         <v>0</v>
       </c>
       <c r="F399">
@@ -11384,11 +10986,10 @@
         <v>9.8165281116962433E-2</v>
       </c>
       <c r="D400">
-        <f t="shared" si="13"/>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
       <c r="E400">
-        <f t="shared" si="12"/>
         <v>0</v>
       </c>
     </row>
@@ -11403,11 +11004,10 @@
         <v>1.4762157574295999E-2</v>
       </c>
       <c r="D401">
-        <f t="shared" si="13"/>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
       <c r="E401">
-        <f t="shared" si="12"/>
         <v>0</v>
       </c>
     </row>
@@ -11422,11 +11022,10 @@
         <v>2.467531897127628E-2</v>
       </c>
       <c r="D402">
-        <f t="shared" si="13"/>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
       <c r="E402">
-        <f t="shared" si="12"/>
         <v>0</v>
       </c>
     </row>
@@ -11441,11 +11040,10 @@
         <v>0.95249110460281372</v>
       </c>
       <c r="D403">
-        <f t="shared" si="13"/>
+        <f t="shared" si="6"/>
         <v>1</v>
       </c>
       <c r="E403">
-        <f t="shared" si="12"/>
         <v>0</v>
       </c>
       <c r="F403">
@@ -11463,11 +11061,10 @@
         <v>1.479933317750692E-2</v>
       </c>
       <c r="D404">
-        <f t="shared" si="13"/>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
       <c r="E404">
-        <f t="shared" si="12"/>
         <v>0</v>
       </c>
     </row>
@@ -11482,11 +11079,10 @@
         <v>0.98743963241577148</v>
       </c>
       <c r="D405">
-        <f t="shared" si="13"/>
+        <f t="shared" si="6"/>
         <v>1</v>
       </c>
       <c r="E405">
-        <f t="shared" si="12"/>
         <v>0</v>
       </c>
       <c r="F405">
@@ -11504,11 +11100,10 @@
         <v>1.6880091279745098E-2</v>
       </c>
       <c r="D406">
-        <f t="shared" si="13"/>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
       <c r="E406">
-        <f t="shared" si="12"/>
         <v>0</v>
       </c>
     </row>
@@ -11523,11 +11118,10 @@
         <v>1.4293935149908069E-2</v>
       </c>
       <c r="D407">
-        <f t="shared" si="13"/>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
       <c r="E407">
-        <f t="shared" si="12"/>
         <v>0</v>
       </c>
     </row>
@@ -11542,11 +11136,10 @@
         <v>1.440652087330818E-2</v>
       </c>
       <c r="D408">
-        <f t="shared" si="13"/>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
       <c r="E408">
-        <f t="shared" si="12"/>
         <v>0</v>
       </c>
     </row>
@@ -11561,11 +11154,10 @@
         <v>1.532459165900946E-2</v>
       </c>
       <c r="D409">
-        <f t="shared" si="13"/>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
       <c r="E409">
-        <f t="shared" si="12"/>
         <v>0</v>
       </c>
     </row>
@@ -11580,11 +11172,10 @@
         <v>1.434189639985561E-2</v>
       </c>
       <c r="D410">
-        <f t="shared" si="13"/>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
       <c r="E410">
-        <f t="shared" si="12"/>
         <v>0</v>
       </c>
     </row>
@@ -11599,11 +11190,10 @@
         <v>1.4298880472779271E-2</v>
       </c>
       <c r="D411">
-        <f t="shared" si="13"/>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
       <c r="E411">
-        <f t="shared" si="12"/>
         <v>0</v>
       </c>
     </row>
@@ -11618,11 +11208,10 @@
         <v>1.5685418620705601E-2</v>
       </c>
       <c r="D412">
-        <f t="shared" si="13"/>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
       <c r="E412">
-        <f t="shared" si="12"/>
         <v>0</v>
       </c>
     </row>
@@ -11637,11 +11226,10 @@
         <v>1.4174072071909899E-2</v>
       </c>
       <c r="D413">
-        <f t="shared" si="13"/>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
       <c r="E413">
-        <f t="shared" si="12"/>
         <v>0</v>
       </c>
     </row>
@@ -11656,11 +11244,10 @@
         <v>1.9881512969732281E-2</v>
       </c>
       <c r="D414">
-        <f t="shared" si="13"/>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
       <c r="E414">
-        <f t="shared" si="12"/>
         <v>0</v>
       </c>
     </row>
@@ -11675,11 +11262,10 @@
         <v>1.449219603091478E-2</v>
       </c>
       <c r="D415">
-        <f t="shared" si="13"/>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
       <c r="E415">
-        <f t="shared" si="12"/>
         <v>0</v>
       </c>
     </row>
@@ -11694,11 +11280,10 @@
         <v>1.4426073059439661E-2</v>
       </c>
       <c r="D416">
-        <f t="shared" si="13"/>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
       <c r="E416">
-        <f t="shared" si="12"/>
         <v>0</v>
       </c>
     </row>
@@ -11713,11 +11298,10 @@
         <v>0.85258364677429199</v>
       </c>
       <c r="D417">
-        <f t="shared" si="13"/>
+        <f t="shared" si="6"/>
         <v>1</v>
       </c>
       <c r="E417">
-        <f t="shared" si="12"/>
         <v>0</v>
       </c>
       <c r="F417">
@@ -11735,11 +11319,10 @@
         <v>1.468674652278423E-2</v>
       </c>
       <c r="D418">
-        <f t="shared" si="13"/>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
       <c r="E418">
-        <f t="shared" si="12"/>
         <v>0</v>
       </c>
     </row>
@@ -11754,11 +11337,10 @@
         <v>1.433678716421127E-2</v>
       </c>
       <c r="D419">
-        <f t="shared" si="13"/>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
       <c r="E419">
-        <f t="shared" si="12"/>
         <v>0</v>
       </c>
     </row>
@@ -11773,11 +11355,10 @@
         <v>1.466462574899197E-2</v>
       </c>
       <c r="D420">
-        <f t="shared" si="13"/>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
       <c r="E420">
-        <f t="shared" si="12"/>
         <v>0</v>
       </c>
     </row>
@@ -11792,11 +11373,10 @@
         <v>1.417671050876379E-2</v>
       </c>
       <c r="D421">
-        <f t="shared" si="13"/>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
       <c r="E421">
-        <f t="shared" si="12"/>
         <v>0</v>
       </c>
     </row>
@@ -11811,11 +11391,10 @@
         <v>0.12896269559860229</v>
       </c>
       <c r="D422">
-        <f t="shared" si="13"/>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
       <c r="E422">
-        <f t="shared" si="12"/>
         <v>0</v>
       </c>
     </row>
@@ -11830,11 +11409,10 @@
         <v>1.4200974255800251E-2</v>
       </c>
       <c r="D423">
-        <f t="shared" si="13"/>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
       <c r="E423">
-        <f t="shared" si="12"/>
         <v>0</v>
       </c>
     </row>
@@ -11849,11 +11427,10 @@
         <v>1.4183809049427509E-2</v>
       </c>
       <c r="D424">
-        <f t="shared" si="13"/>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
       <c r="E424">
-        <f t="shared" si="12"/>
         <v>0</v>
       </c>
     </row>
@@ -11868,11 +11445,10 @@
         <v>1.4164993539452549E-2</v>
       </c>
       <c r="D425">
-        <f t="shared" si="13"/>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
       <c r="E425">
-        <f t="shared" si="12"/>
         <v>0</v>
       </c>
     </row>
@@ -11887,11 +11463,10 @@
         <v>1.4224298298358921E-2</v>
       </c>
       <c r="D426">
-        <f t="shared" si="13"/>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
       <c r="E426">
-        <f t="shared" si="12"/>
         <v>0</v>
       </c>
     </row>
@@ -11906,11 +11481,10 @@
         <v>1.419246662408113E-2</v>
       </c>
       <c r="D427">
-        <f t="shared" si="13"/>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
       <c r="E427">
-        <f t="shared" si="12"/>
         <v>0</v>
       </c>
     </row>
@@ -11925,11 +11499,10 @@
         <v>1.4164973981678489E-2</v>
       </c>
       <c r="D428">
-        <f t="shared" si="13"/>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
       <c r="E428">
-        <f t="shared" si="12"/>
         <v>0</v>
       </c>
     </row>
@@ -11944,11 +11517,10 @@
         <v>1.4171073213219639E-2</v>
       </c>
       <c r="D429">
-        <f t="shared" si="13"/>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
       <c r="E429">
-        <f t="shared" si="12"/>
         <v>0</v>
       </c>
     </row>
@@ -11963,11 +11535,10 @@
         <v>1.443689782172441E-2</v>
       </c>
       <c r="D430">
-        <f t="shared" si="13"/>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
       <c r="E430">
-        <f t="shared" si="12"/>
         <v>0</v>
       </c>
     </row>
@@ -11982,11 +11553,10 @@
         <v>1.438917126506567E-2</v>
       </c>
       <c r="D431">
-        <f t="shared" si="13"/>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
       <c r="E431">
-        <f t="shared" si="12"/>
         <v>0</v>
       </c>
     </row>
@@ -12001,11 +11571,10 @@
         <v>1.7191139981150631E-2</v>
       </c>
       <c r="D432">
-        <f t="shared" si="13"/>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
       <c r="E432">
-        <f t="shared" si="12"/>
         <v>0</v>
       </c>
     </row>
@@ -12020,11 +11589,10 @@
         <v>2.5545414537191391E-2</v>
       </c>
       <c r="D433">
-        <f t="shared" si="13"/>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
       <c r="E433">
-        <f t="shared" si="12"/>
         <v>0</v>
       </c>
     </row>
@@ -12039,11 +11607,10 @@
         <v>2.0431879907846451E-2</v>
       </c>
       <c r="D434">
-        <f t="shared" si="13"/>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
       <c r="E434">
-        <f t="shared" si="12"/>
         <v>0</v>
       </c>
     </row>
@@ -12058,11 +11625,10 @@
         <v>1.517725642770529E-2</v>
       </c>
       <c r="D435">
-        <f t="shared" si="13"/>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
       <c r="E435">
-        <f t="shared" si="12"/>
         <v>0</v>
       </c>
     </row>
@@ -12077,11 +11643,10 @@
         <v>1.428343821316957E-2</v>
       </c>
       <c r="D436">
-        <f t="shared" si="13"/>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
       <c r="E436">
-        <f t="shared" si="12"/>
         <v>0</v>
       </c>
     </row>
@@ -12096,11 +11661,10 @@
         <v>1.4561811462044719E-2</v>
       </c>
       <c r="D437">
-        <f t="shared" si="13"/>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
       <c r="E437">
-        <f t="shared" si="12"/>
         <v>0</v>
       </c>
     </row>
@@ -12115,11 +11679,10 @@
         <v>1.447690837085247E-2</v>
       </c>
       <c r="D438">
-        <f t="shared" si="13"/>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
       <c r="E438">
-        <f t="shared" si="12"/>
         <v>0</v>
       </c>
     </row>
@@ -12134,11 +11697,10 @@
         <v>1.5681000426411629E-2</v>
       </c>
       <c r="D439">
-        <f t="shared" si="13"/>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
       <c r="E439">
-        <f t="shared" si="12"/>
         <v>0</v>
       </c>
     </row>
@@ -12153,11 +11715,10 @@
         <v>1.797076873481274E-2</v>
       </c>
       <c r="D440">
-        <f t="shared" si="13"/>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
       <c r="E440">
-        <f t="shared" si="12"/>
         <v>0</v>
       </c>
     </row>
@@ -12172,11 +11733,10 @@
         <v>0.93318736553192139</v>
       </c>
       <c r="D441">
-        <f t="shared" si="13"/>
+        <f t="shared" si="6"/>
         <v>1</v>
       </c>
       <c r="E441">
-        <f t="shared" si="12"/>
         <v>0</v>
       </c>
       <c r="F441">
@@ -12194,11 +11754,10 @@
         <v>1.4589535072445869E-2</v>
       </c>
       <c r="D442">
-        <f t="shared" si="13"/>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
       <c r="E442">
-        <f t="shared" si="12"/>
         <v>0</v>
       </c>
     </row>
@@ -12213,11 +11772,10 @@
         <v>1.7053395509719849E-2</v>
       </c>
       <c r="D443">
-        <f t="shared" si="13"/>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
       <c r="E443">
-        <f t="shared" si="12"/>
         <v>0</v>
       </c>
     </row>
@@ -12232,11 +11790,10 @@
         <v>1.440306100994349E-2</v>
       </c>
       <c r="D444">
-        <f t="shared" si="13"/>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
       <c r="E444">
-        <f t="shared" si="12"/>
         <v>0</v>
       </c>
     </row>
@@ -12251,11 +11808,10 @@
         <v>4.0610726922750473E-2</v>
       </c>
       <c r="D445">
-        <f t="shared" si="13"/>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
       <c r="E445">
-        <f t="shared" si="12"/>
         <v>0</v>
       </c>
     </row>
@@ -12270,11 +11826,10 @@
         <v>1.4783858321607109E-2</v>
       </c>
       <c r="D446">
-        <f t="shared" si="13"/>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
       <c r="E446">
-        <f t="shared" si="12"/>
         <v>0</v>
       </c>
     </row>
@@ -12289,11 +11844,10 @@
         <v>1.427250541746616E-2</v>
       </c>
       <c r="D447">
-        <f t="shared" si="13"/>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
       <c r="E447">
-        <f t="shared" si="12"/>
         <v>0</v>
       </c>
     </row>
@@ -12308,11 +11862,10 @@
         <v>1.4279838651418689E-2</v>
       </c>
       <c r="D448">
-        <f t="shared" si="13"/>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
       <c r="E448">
-        <f t="shared" si="12"/>
         <v>0</v>
       </c>
     </row>
@@ -12327,11 +11880,10 @@
         <v>1.436146441847086E-2</v>
       </c>
       <c r="D449">
-        <f t="shared" si="13"/>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
       <c r="E449">
-        <f t="shared" si="12"/>
         <v>0</v>
       </c>
     </row>
@@ -12346,11 +11898,10 @@
         <v>1.475258823484182E-2</v>
       </c>
       <c r="D450">
-        <f t="shared" si="13"/>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
       <c r="E450">
-        <f t="shared" ref="E450:E513" si="14">IF(ISBLANK(F450),D450,F450)</f>
         <v>0</v>
       </c>
     </row>
@@ -12365,11 +11916,10 @@
         <v>1.428541261702776E-2</v>
       </c>
       <c r="D451">
-        <f t="shared" ref="D451:D514" si="15">IF(C451&gt;0.5, 1, 0)</f>
+        <f t="shared" ref="D451:D514" si="7">IF(C451&gt;0.5, 1, 0)</f>
         <v>0</v>
       </c>
       <c r="E451">
-        <f t="shared" si="14"/>
         <v>0</v>
       </c>
     </row>
@@ -12384,11 +11934,10 @@
         <v>0.95486146211624146</v>
       </c>
       <c r="D452">
-        <f t="shared" si="15"/>
+        <f t="shared" si="7"/>
         <v>1</v>
       </c>
       <c r="E452">
-        <f t="shared" si="14"/>
         <v>0</v>
       </c>
       <c r="F452">
@@ -12406,11 +11955,10 @@
         <v>1.42159890383482E-2</v>
       </c>
       <c r="D453">
-        <f t="shared" si="15"/>
+        <f t="shared" si="7"/>
         <v>0</v>
       </c>
       <c r="E453">
-        <f t="shared" si="14"/>
         <v>0</v>
       </c>
     </row>
@@ -12425,11 +11973,10 @@
         <v>1.4351841993629931E-2</v>
       </c>
       <c r="D454">
-        <f t="shared" si="15"/>
+        <f t="shared" si="7"/>
         <v>0</v>
       </c>
       <c r="E454">
-        <f t="shared" si="14"/>
         <v>0</v>
       </c>
     </row>
@@ -12444,11 +11991,10 @@
         <v>1.849910244345665E-2</v>
       </c>
       <c r="D455">
-        <f t="shared" si="15"/>
+        <f t="shared" si="7"/>
         <v>0</v>
       </c>
       <c r="E455">
-        <f t="shared" si="14"/>
         <v>0</v>
       </c>
     </row>
@@ -12463,11 +12009,10 @@
         <v>0.5264899730682373</v>
       </c>
       <c r="D456">
-        <f t="shared" si="15"/>
+        <f t="shared" si="7"/>
         <v>1</v>
       </c>
       <c r="E456">
-        <f t="shared" si="14"/>
         <v>1</v>
       </c>
     </row>
@@ -12482,11 +12027,10 @@
         <v>0.80629706382751465</v>
       </c>
       <c r="D457">
-        <f t="shared" si="15"/>
+        <f t="shared" si="7"/>
         <v>1</v>
       </c>
       <c r="E457">
-        <f t="shared" si="14"/>
         <v>0</v>
       </c>
       <c r="F457">
@@ -12504,11 +12048,10 @@
         <v>8.5170388221740723E-2</v>
       </c>
       <c r="D458">
-        <f t="shared" si="15"/>
+        <f t="shared" si="7"/>
         <v>0</v>
       </c>
       <c r="E458">
-        <f t="shared" si="14"/>
         <v>0</v>
       </c>
     </row>
@@ -12523,11 +12066,10 @@
         <v>0.91944760084152222</v>
       </c>
       <c r="D459">
-        <f t="shared" si="15"/>
+        <f t="shared" si="7"/>
         <v>1</v>
       </c>
       <c r="E459">
-        <f t="shared" si="14"/>
         <v>0</v>
       </c>
       <c r="F459">
@@ -12545,11 +12087,10 @@
         <v>1.431750319898129E-2</v>
       </c>
       <c r="D460">
-        <f t="shared" si="15"/>
+        <f t="shared" si="7"/>
         <v>0</v>
       </c>
       <c r="E460">
-        <f t="shared" si="14"/>
         <v>0</v>
       </c>
     </row>
@@ -12564,11 +12105,10 @@
         <v>1.420792657881975E-2</v>
       </c>
       <c r="D461">
-        <f t="shared" si="15"/>
+        <f t="shared" si="7"/>
         <v>0</v>
       </c>
       <c r="E461">
-        <f t="shared" si="14"/>
         <v>0</v>
       </c>
     </row>
@@ -12583,11 +12123,10 @@
         <v>1.4869607053697109E-2</v>
       </c>
       <c r="D462">
-        <f t="shared" si="15"/>
+        <f t="shared" si="7"/>
         <v>0</v>
       </c>
       <c r="E462">
-        <f t="shared" si="14"/>
         <v>0</v>
       </c>
     </row>
@@ -12602,11 +12141,10 @@
         <v>2.38636638969183E-2</v>
       </c>
       <c r="D463">
-        <f t="shared" si="15"/>
+        <f t="shared" si="7"/>
         <v>0</v>
       </c>
       <c r="E463">
-        <f t="shared" si="14"/>
         <v>0</v>
       </c>
     </row>
@@ -12621,11 +12159,10 @@
         <v>1.515437941998243E-2</v>
       </c>
       <c r="D464">
-        <f t="shared" si="15"/>
+        <f t="shared" si="7"/>
         <v>0</v>
       </c>
       <c r="E464">
-        <f t="shared" si="14"/>
         <v>0</v>
       </c>
     </row>
@@ -12640,11 +12177,10 @@
         <v>1.5001264400780199E-2</v>
       </c>
       <c r="D465">
-        <f t="shared" si="15"/>
+        <f t="shared" si="7"/>
         <v>0</v>
       </c>
       <c r="E465">
-        <f t="shared" si="14"/>
         <v>0</v>
       </c>
     </row>
@@ -12659,11 +12195,10 @@
         <v>1.4197430573403841E-2</v>
       </c>
       <c r="D466">
-        <f t="shared" si="15"/>
+        <f t="shared" si="7"/>
         <v>0</v>
       </c>
       <c r="E466">
-        <f t="shared" si="14"/>
         <v>0</v>
       </c>
     </row>
@@ -12678,11 +12213,10 @@
         <v>1.426858734339476E-2</v>
       </c>
       <c r="D467">
-        <f t="shared" si="15"/>
+        <f t="shared" si="7"/>
         <v>0</v>
       </c>
       <c r="E467">
-        <f t="shared" si="14"/>
         <v>0</v>
       </c>
     </row>
@@ -12697,11 +12231,10 @@
         <v>1.4448782429099079E-2</v>
       </c>
       <c r="D468">
-        <f t="shared" si="15"/>
+        <f t="shared" si="7"/>
         <v>0</v>
       </c>
       <c r="E468">
-        <f t="shared" si="14"/>
         <v>0</v>
       </c>
     </row>
@@ -12716,11 +12249,10 @@
         <v>1.421560812741518E-2</v>
       </c>
       <c r="D469">
-        <f t="shared" si="15"/>
+        <f t="shared" si="7"/>
         <v>0</v>
       </c>
       <c r="E469">
-        <f t="shared" si="14"/>
         <v>0</v>
       </c>
     </row>
@@ -12735,11 +12267,10 @@
         <v>2.109073102474213E-2</v>
       </c>
       <c r="D470">
-        <f t="shared" si="15"/>
+        <f t="shared" si="7"/>
         <v>0</v>
       </c>
       <c r="E470">
-        <f t="shared" si="14"/>
         <v>0</v>
       </c>
     </row>
@@ -12754,11 +12285,10 @@
         <v>3.0117463320493702E-2</v>
       </c>
       <c r="D471">
-        <f t="shared" si="15"/>
+        <f t="shared" si="7"/>
         <v>0</v>
       </c>
       <c r="E471">
-        <f t="shared" si="14"/>
         <v>0</v>
       </c>
     </row>
@@ -12773,11 +12303,10 @@
         <v>2.6396589353680611E-2</v>
       </c>
       <c r="D472">
-        <f t="shared" si="15"/>
+        <f t="shared" si="7"/>
         <v>0</v>
       </c>
       <c r="E472">
-        <f t="shared" si="14"/>
         <v>0</v>
       </c>
     </row>
@@ -12792,11 +12321,10 @@
         <v>1.5802832320332531E-2</v>
       </c>
       <c r="D473">
-        <f t="shared" si="15"/>
+        <f t="shared" si="7"/>
         <v>0</v>
       </c>
       <c r="E473">
-        <f t="shared" si="14"/>
         <v>0</v>
       </c>
     </row>
@@ -12811,11 +12339,10 @@
         <v>0.98947733640670776</v>
       </c>
       <c r="D474">
-        <f t="shared" si="15"/>
+        <f t="shared" si="7"/>
         <v>1</v>
       </c>
       <c r="E474">
-        <f t="shared" si="14"/>
         <v>0</v>
       </c>
       <c r="F474">
@@ -12833,11 +12360,10 @@
         <v>1.7300063744187359E-2</v>
       </c>
       <c r="D475">
-        <f t="shared" si="15"/>
+        <f t="shared" si="7"/>
         <v>0</v>
       </c>
       <c r="E475">
-        <f t="shared" si="14"/>
         <v>0</v>
       </c>
     </row>
@@ -12852,11 +12378,10 @@
         <v>1.444533374160528E-2</v>
       </c>
       <c r="D476">
-        <f t="shared" si="15"/>
+        <f t="shared" si="7"/>
         <v>0</v>
       </c>
       <c r="E476">
-        <f t="shared" si="14"/>
         <v>0</v>
       </c>
     </row>
@@ -12871,11 +12396,10 @@
         <v>1.4174011535942549E-2</v>
       </c>
       <c r="D477">
-        <f t="shared" si="15"/>
+        <f t="shared" si="7"/>
         <v>0</v>
       </c>
       <c r="E477">
-        <f t="shared" si="14"/>
         <v>0</v>
       </c>
     </row>
@@ -12890,11 +12414,10 @@
         <v>1.433099340647459E-2</v>
       </c>
       <c r="D478">
-        <f t="shared" si="15"/>
+        <f t="shared" si="7"/>
         <v>0</v>
       </c>
       <c r="E478">
-        <f t="shared" si="14"/>
         <v>0</v>
       </c>
     </row>
@@ -12909,11 +12432,10 @@
         <v>1.4560729265213009E-2</v>
       </c>
       <c r="D479">
-        <f t="shared" si="15"/>
+        <f t="shared" si="7"/>
         <v>0</v>
       </c>
       <c r="E479">
-        <f t="shared" si="14"/>
         <v>0</v>
       </c>
     </row>
@@ -12928,11 +12450,10 @@
         <v>1.485690474510193E-2</v>
       </c>
       <c r="D480">
-        <f t="shared" si="15"/>
+        <f t="shared" si="7"/>
         <v>0</v>
       </c>
       <c r="E480">
-        <f t="shared" si="14"/>
         <v>0</v>
       </c>
     </row>
@@ -12947,11 +12468,10 @@
         <v>0.91427487134933472</v>
       </c>
       <c r="D481">
-        <f t="shared" si="15"/>
+        <f t="shared" si="7"/>
         <v>1</v>
       </c>
       <c r="E481">
-        <f t="shared" si="14"/>
         <v>0</v>
       </c>
       <c r="F481">
@@ -12969,11 +12489,10 @@
         <v>1.4353690668940541E-2</v>
       </c>
       <c r="D482">
-        <f t="shared" si="15"/>
+        <f t="shared" si="7"/>
         <v>0</v>
       </c>
       <c r="E482">
-        <f t="shared" si="14"/>
         <v>0</v>
       </c>
     </row>
@@ -12988,11 +12507,10 @@
         <v>1.4636410400271419E-2</v>
       </c>
       <c r="D483">
-        <f t="shared" si="15"/>
+        <f t="shared" si="7"/>
         <v>0</v>
       </c>
       <c r="E483">
-        <f t="shared" si="14"/>
         <v>0</v>
       </c>
     </row>
@@ -13007,11 +12525,10 @@
         <v>1.421995274722576E-2</v>
       </c>
       <c r="D484">
-        <f t="shared" si="15"/>
+        <f t="shared" si="7"/>
         <v>0</v>
       </c>
       <c r="E484">
-        <f t="shared" si="14"/>
         <v>0</v>
       </c>
     </row>
@@ -13026,11 +12543,10 @@
         <v>1.5729578211903569E-2</v>
       </c>
       <c r="D485">
-        <f t="shared" si="15"/>
+        <f t="shared" si="7"/>
         <v>0</v>
       </c>
       <c r="E485">
-        <f t="shared" si="14"/>
         <v>0</v>
       </c>
     </row>
@@ -13045,11 +12561,10 @@
         <v>3.9354346692562103E-2</v>
       </c>
       <c r="D486">
-        <f t="shared" si="15"/>
+        <f t="shared" si="7"/>
         <v>0</v>
       </c>
       <c r="E486">
-        <f t="shared" si="14"/>
         <v>0</v>
       </c>
     </row>
@@ -13064,11 +12579,10 @@
         <v>1.4297496527433401E-2</v>
       </c>
       <c r="D487">
-        <f t="shared" si="15"/>
+        <f t="shared" si="7"/>
         <v>0</v>
       </c>
       <c r="E487">
-        <f t="shared" si="14"/>
         <v>0</v>
       </c>
     </row>
@@ -13083,11 +12597,10 @@
         <v>1.8095154315233231E-2</v>
       </c>
       <c r="D488">
-        <f t="shared" si="15"/>
+        <f t="shared" si="7"/>
         <v>0</v>
       </c>
       <c r="E488">
-        <f t="shared" si="14"/>
         <v>0</v>
       </c>
     </row>
@@ -13102,11 +12615,10 @@
         <v>1.4421890489757059E-2</v>
       </c>
       <c r="D489">
-        <f t="shared" si="15"/>
+        <f t="shared" si="7"/>
         <v>0</v>
       </c>
       <c r="E489">
-        <f t="shared" si="14"/>
         <v>0</v>
       </c>
     </row>
@@ -13121,11 +12633,10 @@
         <v>1.457709725946188E-2</v>
       </c>
       <c r="D490">
-        <f t="shared" si="15"/>
+        <f t="shared" si="7"/>
         <v>0</v>
       </c>
       <c r="E490">
-        <f t="shared" si="14"/>
         <v>0</v>
       </c>
     </row>
@@ -13140,11 +12651,10 @@
         <v>3.008472174406052E-2</v>
       </c>
       <c r="D491">
-        <f t="shared" si="15"/>
+        <f t="shared" si="7"/>
         <v>0</v>
       </c>
       <c r="E491">
-        <f t="shared" si="14"/>
         <v>0</v>
       </c>
     </row>
@@ -13159,11 +12669,10 @@
         <v>1.436267886310816E-2</v>
       </c>
       <c r="D492">
-        <f t="shared" si="15"/>
+        <f t="shared" si="7"/>
         <v>0</v>
       </c>
       <c r="E492">
-        <f t="shared" si="14"/>
         <v>0</v>
       </c>
     </row>
@@ -13178,11 +12687,10 @@
         <v>2.914272807538509E-2</v>
       </c>
       <c r="D493">
-        <f t="shared" si="15"/>
+        <f t="shared" si="7"/>
         <v>0</v>
       </c>
       <c r="E493">
-        <f t="shared" si="14"/>
         <v>0</v>
       </c>
     </row>
@@ -13197,11 +12705,10 @@
         <v>1.422582939267159E-2</v>
       </c>
       <c r="D494">
-        <f t="shared" si="15"/>
+        <f t="shared" si="7"/>
         <v>0</v>
       </c>
       <c r="E494">
-        <f t="shared" si="14"/>
         <v>0</v>
       </c>
     </row>
@@ -13216,11 +12723,10 @@
         <v>1.494582183659077E-2</v>
       </c>
       <c r="D495">
-        <f t="shared" si="15"/>
+        <f t="shared" si="7"/>
         <v>0</v>
       </c>
       <c r="E495">
-        <f t="shared" si="14"/>
         <v>0</v>
       </c>
     </row>
@@ -13235,11 +12741,10 @@
         <v>1.4478730969130989E-2</v>
       </c>
       <c r="D496">
-        <f t="shared" si="15"/>
+        <f t="shared" si="7"/>
         <v>0</v>
       </c>
       <c r="E496">
-        <f t="shared" si="14"/>
         <v>0</v>
       </c>
     </row>
@@ -13254,11 +12759,10 @@
         <v>1.4620161615312099E-2</v>
       </c>
       <c r="D497">
-        <f t="shared" si="15"/>
+        <f t="shared" si="7"/>
         <v>0</v>
       </c>
       <c r="E497">
-        <f t="shared" si="14"/>
         <v>0</v>
       </c>
     </row>
@@ -13273,11 +12777,10 @@
         <v>1.4774776995182041E-2</v>
       </c>
       <c r="D498">
-        <f t="shared" si="15"/>
+        <f t="shared" si="7"/>
         <v>0</v>
       </c>
       <c r="E498">
-        <f t="shared" si="14"/>
         <v>0</v>
       </c>
     </row>
@@ -13292,11 +12795,10 @@
         <v>3.834846243262291E-2</v>
       </c>
       <c r="D499">
-        <f t="shared" si="15"/>
+        <f t="shared" si="7"/>
         <v>0</v>
       </c>
       <c r="E499">
-        <f t="shared" si="14"/>
         <v>0</v>
       </c>
     </row>
@@ -13311,11 +12813,10 @@
         <v>0.72087514400482178</v>
       </c>
       <c r="D500">
-        <f t="shared" si="15"/>
+        <f t="shared" si="7"/>
         <v>1</v>
       </c>
       <c r="E500">
-        <f t="shared" si="14"/>
         <v>0</v>
       </c>
       <c r="F500">
@@ -13333,11 +12834,10 @@
         <v>1.421181298792362E-2</v>
       </c>
       <c r="D501">
-        <f t="shared" si="15"/>
+        <f t="shared" si="7"/>
         <v>0</v>
       </c>
       <c r="E501">
-        <f t="shared" si="14"/>
         <v>0</v>
       </c>
     </row>
@@ -13352,11 +12852,10 @@
         <v>1.484082825481892E-2</v>
       </c>
       <c r="D502">
-        <f t="shared" si="15"/>
+        <f t="shared" si="7"/>
         <v>0</v>
       </c>
       <c r="E502">
-        <f t="shared" si="14"/>
         <v>0</v>
       </c>
     </row>
@@ -13371,11 +12870,10 @@
         <v>1.475985534489155E-2</v>
       </c>
       <c r="D503">
-        <f t="shared" si="15"/>
+        <f t="shared" si="7"/>
         <v>0</v>
       </c>
       <c r="E503">
-        <f t="shared" si="14"/>
         <v>0</v>
       </c>
     </row>
@@ -13390,11 +12888,10 @@
         <v>1.4675570651888851E-2</v>
       </c>
       <c r="D504">
-        <f t="shared" si="15"/>
+        <f t="shared" si="7"/>
         <v>0</v>
       </c>
       <c r="E504">
-        <f t="shared" si="14"/>
         <v>0</v>
       </c>
     </row>
@@ -13409,11 +12906,10 @@
         <v>1.465702801942825E-2</v>
       </c>
       <c r="D505">
-        <f t="shared" si="15"/>
+        <f t="shared" si="7"/>
         <v>0</v>
       </c>
       <c r="E505">
-        <f t="shared" si="14"/>
         <v>0</v>
       </c>
     </row>
@@ -13428,11 +12924,10 @@
         <v>3.5289786756038673E-2</v>
       </c>
       <c r="D506">
-        <f t="shared" si="15"/>
+        <f t="shared" si="7"/>
         <v>0</v>
       </c>
       <c r="E506">
-        <f t="shared" si="14"/>
         <v>0</v>
       </c>
     </row>
@@ -13447,11 +12942,10 @@
         <v>1.49795850738883E-2</v>
       </c>
       <c r="D507">
-        <f t="shared" si="15"/>
+        <f t="shared" si="7"/>
         <v>0</v>
       </c>
       <c r="E507">
-        <f t="shared" si="14"/>
         <v>0</v>
       </c>
     </row>
@@ -13466,11 +12960,10 @@
         <v>0.9906383752822876</v>
       </c>
       <c r="D508">
-        <f t="shared" si="15"/>
+        <f t="shared" si="7"/>
         <v>1</v>
       </c>
       <c r="E508">
-        <f t="shared" si="14"/>
         <v>1</v>
       </c>
     </row>
@@ -13485,11 +12978,10 @@
         <v>7.103370875120163E-2</v>
       </c>
       <c r="D509">
-        <f t="shared" si="15"/>
+        <f t="shared" si="7"/>
         <v>0</v>
       </c>
       <c r="E509">
-        <f t="shared" si="14"/>
         <v>0</v>
       </c>
     </row>
@@ -13504,11 +12996,10 @@
         <v>1.495634205639362E-2</v>
       </c>
       <c r="D510">
-        <f t="shared" si="15"/>
+        <f t="shared" si="7"/>
         <v>0</v>
       </c>
       <c r="E510">
-        <f t="shared" si="14"/>
         <v>0</v>
       </c>
     </row>
@@ -13523,11 +13014,10 @@
         <v>0.99035346508026123</v>
       </c>
       <c r="D511">
-        <f t="shared" si="15"/>
+        <f t="shared" si="7"/>
         <v>1</v>
       </c>
       <c r="E511">
-        <f t="shared" si="14"/>
         <v>1</v>
       </c>
     </row>
@@ -13542,11 +13032,10 @@
         <v>0.99059945344924927</v>
       </c>
       <c r="D512">
-        <f t="shared" si="15"/>
+        <f t="shared" si="7"/>
         <v>1</v>
       </c>
       <c r="E512">
-        <f t="shared" si="14"/>
         <v>1</v>
       </c>
     </row>
@@ -13561,11 +13050,10 @@
         <v>0.17950548231601721</v>
       </c>
       <c r="D513">
-        <f t="shared" si="15"/>
+        <f t="shared" si="7"/>
         <v>0</v>
       </c>
       <c r="E513">
-        <f t="shared" si="14"/>
         <v>0</v>
       </c>
     </row>
@@ -13580,11 +13068,10 @@
         <v>0.953316330909729</v>
       </c>
       <c r="D514">
-        <f t="shared" si="15"/>
+        <f t="shared" si="7"/>
         <v>1</v>
       </c>
       <c r="E514">
-        <f t="shared" ref="E514:E556" si="16">IF(ISBLANK(F514),D514,F514)</f>
         <v>1</v>
       </c>
     </row>
@@ -13599,11 +13086,10 @@
         <v>0.99059134721755981</v>
       </c>
       <c r="D515">
-        <f t="shared" ref="D515:D556" si="17">IF(C515&gt;0.5, 1, 0)</f>
+        <f t="shared" ref="D515:D556" si="8">IF(C515&gt;0.5, 1, 0)</f>
         <v>1</v>
       </c>
       <c r="E515">
-        <f t="shared" si="16"/>
         <v>1</v>
       </c>
     </row>
@@ -13618,11 +13104,10 @@
         <v>2.644567005336285E-2</v>
       </c>
       <c r="D516">
-        <f t="shared" si="17"/>
+        <f t="shared" si="8"/>
         <v>0</v>
       </c>
       <c r="E516">
-        <f t="shared" si="16"/>
         <v>0</v>
       </c>
     </row>
@@ -13637,11 +13122,10 @@
         <v>0.99056947231292725</v>
       </c>
       <c r="D517">
-        <f t="shared" si="17"/>
+        <f t="shared" si="8"/>
         <v>1</v>
       </c>
       <c r="E517">
-        <f t="shared" si="16"/>
         <v>1</v>
       </c>
     </row>
@@ -13656,11 +13140,10 @@
         <v>0.99000436067581177</v>
       </c>
       <c r="D518">
-        <f t="shared" si="17"/>
+        <f t="shared" si="8"/>
         <v>1</v>
       </c>
       <c r="E518">
-        <f t="shared" si="16"/>
         <v>1</v>
       </c>
     </row>
@@ -13675,11 +13158,10 @@
         <v>0.94159585237503052</v>
       </c>
       <c r="D519">
-        <f t="shared" si="17"/>
+        <f t="shared" si="8"/>
         <v>1</v>
       </c>
       <c r="E519">
-        <f t="shared" si="16"/>
         <v>1</v>
       </c>
     </row>
@@ -13694,11 +13176,10 @@
         <v>3.2673802226781852E-2</v>
       </c>
       <c r="D520">
-        <f t="shared" si="17"/>
+        <f t="shared" si="8"/>
         <v>0</v>
       </c>
       <c r="E520">
-        <f t="shared" si="16"/>
         <v>0</v>
       </c>
     </row>
@@ -13713,11 +13194,10 @@
         <v>1.4374213293194771E-2</v>
       </c>
       <c r="D521">
-        <f t="shared" si="17"/>
+        <f t="shared" si="8"/>
         <v>0</v>
       </c>
       <c r="E521">
-        <f t="shared" si="16"/>
         <v>0</v>
       </c>
     </row>
@@ -13732,11 +13212,10 @@
         <v>0.2142396867275238</v>
       </c>
       <c r="D522">
-        <f t="shared" si="17"/>
+        <f t="shared" si="8"/>
         <v>0</v>
       </c>
       <c r="E522">
-        <f t="shared" si="16"/>
         <v>0</v>
       </c>
     </row>
@@ -13751,11 +13230,10 @@
         <v>7.9505905508995056E-2</v>
       </c>
       <c r="D523">
-        <f t="shared" si="17"/>
+        <f t="shared" si="8"/>
         <v>0</v>
       </c>
       <c r="E523">
-        <f t="shared" si="16"/>
         <v>0</v>
       </c>
     </row>
@@ -13770,11 +13248,10 @@
         <v>1.4660960994660849E-2</v>
       </c>
       <c r="D524">
-        <f t="shared" si="17"/>
+        <f t="shared" si="8"/>
         <v>0</v>
       </c>
       <c r="E524">
-        <f t="shared" si="16"/>
         <v>0</v>
       </c>
     </row>
@@ -13789,11 +13266,10 @@
         <v>0.99055945873260498</v>
       </c>
       <c r="D525">
-        <f t="shared" si="17"/>
+        <f t="shared" si="8"/>
         <v>1</v>
       </c>
       <c r="E525">
-        <f t="shared" si="16"/>
         <v>1</v>
       </c>
     </row>
@@ -13808,11 +13284,10 @@
         <v>1.4286103658378121E-2</v>
       </c>
       <c r="D526">
-        <f t="shared" si="17"/>
+        <f t="shared" si="8"/>
         <v>0</v>
       </c>
       <c r="E526">
-        <f t="shared" si="16"/>
         <v>0</v>
       </c>
     </row>
@@ -13827,11 +13302,10 @@
         <v>1.45862028002739E-2</v>
       </c>
       <c r="D527">
-        <f t="shared" si="17"/>
+        <f t="shared" si="8"/>
         <v>0</v>
       </c>
       <c r="E527">
-        <f t="shared" si="16"/>
         <v>0</v>
       </c>
     </row>
@@ -13846,11 +13320,10 @@
         <v>1.421218179166317E-2</v>
       </c>
       <c r="D528">
-        <f t="shared" si="17"/>
+        <f t="shared" si="8"/>
         <v>0</v>
       </c>
       <c r="E528">
-        <f t="shared" si="16"/>
         <v>0</v>
       </c>
     </row>
@@ -13865,11 +13338,10 @@
         <v>1.4436822384595869E-2</v>
       </c>
       <c r="D529">
-        <f t="shared" si="17"/>
+        <f t="shared" si="8"/>
         <v>0</v>
       </c>
       <c r="E529">
-        <f t="shared" si="16"/>
         <v>0</v>
       </c>
     </row>
@@ -13884,11 +13356,10 @@
         <v>1.4373821206390859E-2</v>
       </c>
       <c r="D530">
-        <f t="shared" si="17"/>
+        <f t="shared" si="8"/>
         <v>0</v>
       </c>
       <c r="E530">
-        <f t="shared" si="16"/>
         <v>0</v>
       </c>
     </row>
@@ -13903,11 +13374,10 @@
         <v>1.4400908723473551E-2</v>
       </c>
       <c r="D531">
-        <f t="shared" si="17"/>
+        <f t="shared" si="8"/>
         <v>0</v>
       </c>
       <c r="E531">
-        <f t="shared" si="16"/>
         <v>0</v>
       </c>
     </row>
@@ -13922,11 +13392,10 @@
         <v>1.457450911402702E-2</v>
       </c>
       <c r="D532">
-        <f t="shared" si="17"/>
+        <f t="shared" si="8"/>
         <v>0</v>
       </c>
       <c r="E532">
-        <f t="shared" si="16"/>
         <v>0</v>
       </c>
     </row>
@@ -13941,11 +13410,10 @@
         <v>1.7297858372330669E-2</v>
       </c>
       <c r="D533">
-        <f t="shared" si="17"/>
+        <f t="shared" si="8"/>
         <v>0</v>
       </c>
       <c r="E533">
-        <f t="shared" si="16"/>
         <v>0</v>
       </c>
     </row>
@@ -13960,11 +13428,10 @@
         <v>1.491688378155231E-2</v>
       </c>
       <c r="D534">
-        <f t="shared" si="17"/>
+        <f t="shared" si="8"/>
         <v>0</v>
       </c>
       <c r="E534">
-        <f t="shared" si="16"/>
         <v>0</v>
       </c>
     </row>
@@ -13979,11 +13446,10 @@
         <v>1.431682892143726E-2</v>
       </c>
       <c r="D535">
-        <f t="shared" si="17"/>
+        <f t="shared" si="8"/>
         <v>0</v>
       </c>
       <c r="E535">
-        <f t="shared" si="16"/>
         <v>0</v>
       </c>
     </row>
@@ -13998,11 +13464,10 @@
         <v>1.450038980692625E-2</v>
       </c>
       <c r="D536">
-        <f t="shared" si="17"/>
+        <f t="shared" si="8"/>
         <v>0</v>
       </c>
       <c r="E536">
-        <f t="shared" si="16"/>
         <v>0</v>
       </c>
     </row>
@@ -14017,11 +13482,10 @@
         <v>0.20838466286659241</v>
       </c>
       <c r="D537">
-        <f t="shared" si="17"/>
+        <f t="shared" si="8"/>
         <v>0</v>
       </c>
       <c r="E537">
-        <f t="shared" si="16"/>
         <v>0</v>
       </c>
     </row>
@@ -14036,11 +13500,10 @@
         <v>6.4828209578990936E-2</v>
       </c>
       <c r="D538">
-        <f t="shared" si="17"/>
+        <f t="shared" si="8"/>
         <v>0</v>
       </c>
       <c r="E538">
-        <f t="shared" si="16"/>
         <v>0</v>
       </c>
     </row>
@@ -14055,11 +13518,10 @@
         <v>1.4206757768988609E-2</v>
       </c>
       <c r="D539">
-        <f t="shared" si="17"/>
+        <f t="shared" si="8"/>
         <v>0</v>
       </c>
       <c r="E539">
-        <f t="shared" si="16"/>
         <v>0</v>
       </c>
     </row>
@@ -14074,11 +13536,10 @@
         <v>7.103370875120163E-2</v>
       </c>
       <c r="D540">
-        <f t="shared" si="17"/>
+        <f t="shared" si="8"/>
         <v>0</v>
       </c>
       <c r="E540">
-        <f t="shared" si="16"/>
         <v>0</v>
       </c>
     </row>
@@ -14093,11 +13554,10 @@
         <v>0.96079862117767334</v>
       </c>
       <c r="D541">
-        <f t="shared" si="17"/>
+        <f t="shared" si="8"/>
         <v>1</v>
       </c>
       <c r="E541">
-        <f t="shared" si="16"/>
         <v>0</v>
       </c>
       <c r="F541">
@@ -14115,11 +13575,10 @@
         <v>7.5611747801303864E-2</v>
       </c>
       <c r="D542">
-        <f t="shared" si="17"/>
+        <f t="shared" si="8"/>
         <v>0</v>
       </c>
       <c r="E542">
-        <f t="shared" si="16"/>
         <v>0</v>
       </c>
     </row>
@@ -14134,11 +13593,10 @@
         <v>2.506714686751366E-2</v>
       </c>
       <c r="D543">
-        <f t="shared" si="17"/>
+        <f t="shared" si="8"/>
         <v>0</v>
       </c>
       <c r="E543">
-        <f t="shared" si="16"/>
         <v>0</v>
       </c>
     </row>
@@ -14153,11 +13611,10 @@
         <v>1.425390876829624E-2</v>
       </c>
       <c r="D544">
-        <f t="shared" si="17"/>
+        <f t="shared" si="8"/>
         <v>0</v>
       </c>
       <c r="E544">
-        <f t="shared" si="16"/>
         <v>0</v>
       </c>
     </row>
@@ -14172,11 +13629,10 @@
         <v>1.5418557450175291E-2</v>
       </c>
       <c r="D545">
-        <f t="shared" si="17"/>
+        <f t="shared" si="8"/>
         <v>0</v>
       </c>
       <c r="E545">
-        <f t="shared" si="16"/>
         <v>0</v>
       </c>
     </row>
@@ -14191,11 +13647,10 @@
         <v>1.419524289667606E-2</v>
       </c>
       <c r="D546">
-        <f t="shared" si="17"/>
+        <f t="shared" si="8"/>
         <v>0</v>
       </c>
       <c r="E546">
-        <f t="shared" si="16"/>
         <v>0</v>
       </c>
     </row>
@@ -14210,11 +13665,10 @@
         <v>1.7477912828326229E-2</v>
       </c>
       <c r="D547">
-        <f t="shared" si="17"/>
+        <f t="shared" si="8"/>
         <v>0</v>
       </c>
       <c r="E547">
-        <f t="shared" si="16"/>
         <v>0</v>
       </c>
     </row>
@@ -14229,11 +13683,10 @@
         <v>2.8022147715091709E-2</v>
       </c>
       <c r="D548">
-        <f t="shared" si="17"/>
+        <f t="shared" si="8"/>
         <v>0</v>
       </c>
       <c r="E548">
-        <f t="shared" si="16"/>
         <v>0</v>
       </c>
     </row>
@@ -14248,11 +13701,10 @@
         <v>0.99053055047988892</v>
       </c>
       <c r="D549">
-        <f t="shared" si="17"/>
+        <f t="shared" si="8"/>
         <v>1</v>
       </c>
       <c r="E549">
-        <f t="shared" si="16"/>
         <v>1</v>
       </c>
     </row>
@@ -14267,11 +13719,10 @@
         <v>1.4685124158859249E-2</v>
       </c>
       <c r="D550">
-        <f t="shared" si="17"/>
+        <f t="shared" si="8"/>
         <v>0</v>
       </c>
       <c r="E550">
-        <f t="shared" si="16"/>
         <v>0</v>
       </c>
     </row>
@@ -14286,11 +13737,10 @@
         <v>2.011456340551376E-2</v>
       </c>
       <c r="D551">
-        <f t="shared" si="17"/>
+        <f t="shared" si="8"/>
         <v>0</v>
       </c>
       <c r="E551">
-        <f t="shared" si="16"/>
         <v>0</v>
       </c>
     </row>
@@ -14305,11 +13755,10 @@
         <v>1.498791016638279E-2</v>
       </c>
       <c r="D552">
-        <f t="shared" si="17"/>
+        <f t="shared" si="8"/>
         <v>0</v>
       </c>
       <c r="E552">
-        <f t="shared" si="16"/>
         <v>0</v>
       </c>
     </row>
@@ -14324,11 +13773,10 @@
         <v>1.9889045506715771E-2</v>
       </c>
       <c r="D553">
-        <f t="shared" si="17"/>
+        <f t="shared" si="8"/>
         <v>0</v>
       </c>
       <c r="E553">
-        <f t="shared" si="16"/>
         <v>0</v>
       </c>
     </row>
@@ -14343,11 +13791,10 @@
         <v>3.5581227391958237E-2</v>
       </c>
       <c r="D554">
-        <f t="shared" si="17"/>
+        <f t="shared" si="8"/>
         <v>0</v>
       </c>
       <c r="E554">
-        <f t="shared" si="16"/>
         <v>0</v>
       </c>
     </row>
@@ -14362,11 +13809,10 @@
         <v>1.438471488654613E-2</v>
       </c>
       <c r="D555">
-        <f t="shared" si="17"/>
+        <f t="shared" si="8"/>
         <v>0</v>
       </c>
       <c r="E555">
-        <f t="shared" si="16"/>
         <v>0</v>
       </c>
     </row>
@@ -14381,11 +13827,10 @@
         <v>0.99059790372848511</v>
       </c>
       <c r="D556">
-        <f t="shared" si="17"/>
+        <f t="shared" si="8"/>
         <v>1</v>
       </c>
       <c r="E556">
-        <f t="shared" si="16"/>
         <v>0</v>
       </c>
       <c r="F556">
